--- a/Venky-Submission Sheet- Innovation Track.xlsx
+++ b/Venky-Submission Sheet- Innovation Track.xlsx
@@ -115,75 +115,21 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Humbhi online has these functionalities in the application. The application is open sourced. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/venkatramanm/humbhionline
+    <t xml:space="preserve">Humbhi online has these functionalities in the application. The application is open sourced. https://github.com/venkatramanm/humbhionline
 Any user can be a seller.
 User can define his/her upi handle.
 Seller can define facilities/stores
 Items stocked in stores can be added to the store’s catalog (* Open catalog dataset project will help adding it quicker *)
 Item details can be added for sellers.
-Store can mention if it supports delivery or buyer needs to pickup . Store can outsource delivery via 3</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">rd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> party (Dunzo good box etc. Humbhionline is a delivery BAP)</t>
-    </r>
+Store can mention if it supports delivery or buyer needs to pickup . Store can outsource delivery via 3rd party (Dunzo good box etc. Humbhionline is a delivery BAP)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Loaded the XLS provided in the hackathon and made it available to sellers on humbhionline
+    <t xml:space="preserve">Loaded the XLS provided in the hackathon and made it available to sellers on humbhionline
 https://mandi.succinct.in  is a the stage instance of the opensource project https://github.com/venkatramanm/humbhionline 
 The production instance is https://humbhionline.in  where it will be made available shortly
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A POC Client app has been written which can be seen for the implementation of this open catalog VID_20220109_105520_257.mp4 
-https://github.com/venkatramanm/innovation-hackathon-jan22/blob/main/VID_20220109_105520_257.mp4</t>
-    </r>
+A POC Client app has been written which can be seen for the implementation of this open catalog.
+prototype-video.mp4
+https://github.com/venkatramanm/innovation-hackathon-jan22/blob/main/prototype-video.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Regular Flutter Application
@@ -197,42 +143,13 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Open FMCG DataSet Api
+    <t xml:space="preserve">Open FMCG DataSet Api
 Catalog Text Search 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">curl -H "Accept:application/json" https://mandi.succinct.in/skus/open_search?q=Maggi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+curl -H "Accept:application/json" https://mandi.succinct.in/skus/open_search?q=Maggi
 Catalog OCR Search provided
 curl -H "Accept:application/json" -F file=@database/images/Maggi_2_Minute_Noodels.png  https://mandi.succinct.in/skus/image_search 
  ** Prototype added for this Part* 
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Dataset made available in the hackathon by Supriyo and Good box team were used</t>
@@ -329,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -414,19 +331,6 @@
       <name val="Lato"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lato"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Lato"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -632,7 +536,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -718,10 +622,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,21 +748,21 @@
   </sheetPr>
   <dimension ref="A1:AG1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="65.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,7 +1070,7 @@
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -1219,8 +1119,8 @@
       <c r="G9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
         <v>30</v>
       </c>
@@ -1260,8 +1160,8 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -1303,8 +1203,8 @@
       <c r="G11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -1342,8 +1242,8 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
@@ -1381,8 +1281,8 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -1420,8 +1320,8 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -37464,7 +37364,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" display="https://github.com/venkatramanm/humbhionline"/>
+    <hyperlink ref="G8" r:id="rId1" display="Humbhi online has these functionalities in the application. The application is open sourced. https://github.com/venkatramanm/humbhionline&#10;&#10;Any user can be a seller.&#10;User can define his/her upi handle.&#10;Seller can define facilities/stores&#10;Items stocked in stores can be added to the store’s catalog (* Open catalog dataset project will help adding it quicker *)&#10;Item details can be added for sellers.&#10;Store can mention if it supports delivery or buyer needs to pickup . Store can outsource delivery via 3rd party (Dunzo good box etc. Humbhionline is a delivery BAP)"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://github.com/venkatramanm/innovation-hackathon-jan22/blob/main/prototype-video.mp4"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Venky-Submission Sheet- Innovation Track.xlsx
+++ b/Venky-Submission Sheet- Innovation Track.xlsx
@@ -161,7 +161,8 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">Humbhionline uses restful apis to create/update the catalog. It also has a xls upload, using this we have loaded the hackathon dataset into the db. </t>
+    <t xml:space="preserve">Humbhionline uses restful apis to create/update the catalog. It also has a xls upload, using this we have loaded the hackathon dataset into the db. 
+Also  every non existent item, when added for any seller, it gets added to the global catalog to make it easy for other sellers to use. So it would be a crowd sourced fmcg catalog</t>
   </si>
   <si>
     <t xml:space="preserve">e</t>
@@ -748,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:AG1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
@@ -1187,7 +1188,7 @@
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -37363,10 +37364,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" display="Humbhi online has these functionalities in the application. The application is open sourced. https://github.com/venkatramanm/humbhionline&#10;&#10;Any user can be a seller.&#10;User can define his/her upi handle.&#10;Seller can define facilities/stores&#10;Items stocked in stores can be added to the store’s catalog (* Open catalog dataset project will help adding it quicker *)&#10;Item details can be added for sellers.&#10;Store can mention if it supports delivery or buyer needs to pickup . Store can outsource delivery via 3rd party (Dunzo good box etc. Humbhionline is a delivery BAP)"/>
-    <hyperlink ref="H8" r:id="rId2" display="https://github.com/venkatramanm/innovation-hackathon-jan22/blob/main/prototype-video.mp4"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Venky-Submission Sheet- Innovation Track.xlsx
+++ b/Venky-Submission Sheet- Innovation Track.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <r>
       <rPr>
@@ -128,8 +128,10 @@
 https://mandi.succinct.in  is a the stage instance of the opensource project https://github.com/venkatramanm/humbhionline 
 The production instance is https://humbhionline.in  where it will be made available shortly
 A POC Client app has been written which can be seen for the implementation of this open catalog.
-prototype-video.mp4
-https://github.com/venkatramanm/innovation-hackathon-jan22/blob/main/prototype-video.mp4</t>
+(Video)
+https://drive.google.com/file/d/1GYAcgEGH1NaisKR7hFDmOuqs-s-8Y0PL/view?usp=sharing, 
+(Screen Shot of seller with 1000+  items Loaded)
+https://drive.google.com/file/d/1HGRIJ2_zTiTs7zBgtkEroo7c_ISp9KXj/view?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Regular Flutter Application
@@ -193,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">Enable intelligent searches, for different buyer apps in the ONDC network, so that there is better discoverability of seller catalogs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -H "Accept:application/json" -F file=@database/images/Maggi_2_Minute_Noodels.png  https://mandi.succinct.in/skus/image_search</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic Pricing</t>
@@ -749,8 +748,8 @@
   </sheetPr>
   <dimension ref="A1:AG1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -759,8 +758,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="65.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="55.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="45.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="1" width="19.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="14.43"/>
@@ -1861,7 +1860,7 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1872,9 +1871,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="G28" s="0"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -1942,10 +1939,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>21</v>
@@ -2139,10 +2136,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>21</v>
@@ -2336,10 +2333,10 @@
         <v>7</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>21</v>
@@ -2533,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>21</v>
@@ -2691,10 +2688,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>21</v>
@@ -2888,10 +2885,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>21</v>
@@ -3085,10 +3082,10 @@
         <v>11</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>21</v>

--- a/Venky-Submission Sheet- Innovation Track.xlsx
+++ b/Venky-Submission Sheet- Innovation Track.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t xml:space="preserve">Create and maintain a distributed ledger of open data in ONDC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venky-Rating.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://beckn-one.succinct.in/rating is an endpoint where the proposal is implemented for review. </t>
   </si>
   <si>
     <t xml:space="preserve">Solutions for Web 3.0</t>
@@ -748,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:AG1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2699,9 +2705,15 @@
       <c r="E49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="F49" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
@@ -2738,8 +2750,12 @@
       <c r="E50" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="F50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -2777,8 +2793,12 @@
       <c r="E51" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="F51" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -2885,10 +2905,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>21</v>
@@ -3082,10 +3102,10 @@
         <v>11</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>21</v>
@@ -37361,6 +37381,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H49" r:id="rId1" display="https://beckn-one.succinct.in/rating"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Venky-Submission Sheet- Innovation Track.xlsx
+++ b/Venky-Submission Sheet- Innovation Track.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -115,23 +115,37 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Humbhi online has these functionalities in the application. The application is open sourced. https://github.com/venkatramanm/humbhionline
+    <t xml:space="preserve">A Global List of items db provided in hackathon as a started db</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lato"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Humbhi online has these functionalities in the application. The application is open sourced. https://github.com/venkatramanm/humbhionline
 Any user can be a seller.
-User can define his/her upi handle.
+User can define his/her upi handle on his profile.
 Seller can define facilities/stores
 Items stocked in stores can be added to the store’s catalog (* Open catalog dataset project will help adding it quicker *)
 Item details can be added for sellers.
-Store can mention if it supports delivery or buyer needs to pickup . Store can outsource delivery via 3rd party (Dunzo good box etc. Humbhionline is a delivery BAP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loaded the XLS provided in the hackathon and made it available to sellers on humbhionline
-https://mandi.succinct.in  is a the stage instance of the opensource project https://github.com/venkatramanm/humbhionline 
-The production instance is https://humbhionline.in  where it will be made available shortly
-A POC Client app has been written which can be seen for the implementation of this open catalog.
-(Video)
-https://drive.google.com/file/d/1GYAcgEGH1NaisKR7hFDmOuqs-s-8Y0PL/view?usp=sharing, 
-(Screen Shot of seller with 1000+  items Loaded)
-https://drive.google.com/file/d/1HGRIJ2_zTiTs7zBgtkEroo7c_ISp9KXj/view?usp=sharing</t>
+Store can mention if it supports delivery or buyer needs to pickup . Store can outsource delivery via 3rd party (Dunzo good box etc. Humbhionline is a delivery BAP)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lato"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://mandi.succinct.in  is a the stage instance of the opensource project https://github.com/venkatramanm/humbhionline 
+seen for the implementation of this open catalog.
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Regular Flutter Application
@@ -145,12 +159,17 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t xml:space="preserve">Open FMCG DataSet Api
+    <t xml:space="preserve">A POC Client app has been written
+Open FMCG DataSet Api(Built during hackathon and made it available via humbhionline)
 Catalog Text Search 
 curl -H "Accept:application/json" https://mandi.succinct.in/skus/open_search?q=Maggi
 Catalog OCR Search provided
 curl -H "Accept:application/json" -F file=@database/images/Maggi_2_Minute_Noodels.png  https://mandi.succinct.in/skus/image_search 
  ** Prototype added for this Part* 
+(Video)
+https://drive.google.com/file/d/1GYAcgEGH1NaisKR7hFDmOuqs-s-8Y0PL/view?usp=sharing, 
+(Screen Shot of seller with 1000+  items Loaded)
+https://drive.google.com/file/d/1HGRIJ2_zTiTs7zBgtkEroo7c_ISp9KXj/view?usp=sharing
 </t>
   </si>
   <si>
@@ -163,14 +182,40 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">Humbhionline uses restful apis to create/update the catalog. It also has a xls upload, using this we have loaded the hackathon dataset into the db. 
-Also  every non existent item, when added for any seller, it gets added to the global catalog to make it easy for other sellers to use. So it would be a crowd sourced fmcg catalog</t>
+    <t xml:space="preserve">Open FMCG DataSet Api(Built during hackathon and made it available via humbhionline)
+Catalog Text Search 
+curl -H "Accept:application/json" https://mandi.succinct.in/skus/open_search?q=Maggi
+Catalog OCR Search provided
+curl -H "Accept:application/json" -F file=@database/images/Maggi_2_Minute_Noodels.png  https://mandi.succinct.in/skus/image_search 
+</t>
   </si>
   <si>
     <t xml:space="preserve">e</t>
   </si>
   <si>
     <t xml:space="preserve">Optional</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lato"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lato"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Humbhionline uses restful apis to create/update the catalog. It also has a xls upload, using this we have loaded the hackathon dataset into the db. 
+Also  every non existent item, when added for any seller, it gets added to the global catalog to make it easy for other sellers to use. So it would be a crowd sourced fmcg catalogLoaded the XLS provided in the hackathon and made it available to sellers on humbhionline and also possibly to others via open api</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">f</t>
@@ -227,10 +272,8 @@
     <t xml:space="preserve">Create and maintain a distributed ledger of open data in ONDC.</t>
   </si>
   <si>
-    <t xml:space="preserve">Venky-Rating.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://beckn-one.succinct.in/rating is an endpoint where the proposal is implemented for review. </t>
+    <t xml:space="preserve">https://beckn-one.succinct.in/rating is an endpoint where the proposal is implemented for review. 
+Refer venky-challenge-9/Venky-Rating.md for details</t>
   </si>
   <si>
     <t xml:space="preserve">Solutions for Web 3.0</t>
@@ -252,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -276,6 +319,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="18"/>
       <color rgb="FF666666"/>
@@ -293,7 +343,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lato"/>
       <family val="0"/>
@@ -301,10 +358,39 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lato"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -312,31 +398,6 @@
       <color rgb="FF000000"/>
       <name val="Lato"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF434343"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF434343"/>
-      <name val="Lato"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lato"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -542,20 +603,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,6 +690,18 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -754,18 +827,18 @@
   </sheetPr>
   <dimension ref="A1:AG1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="55.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="45.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="58.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="1" width="19.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="14.43"/>
@@ -808,7 +881,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -843,7 +916,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
@@ -882,7 +955,7 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
@@ -921,7 +994,7 @@
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -958,7 +1031,7 @@
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -993,7 +1066,7 @@
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>6</v>
@@ -1054,7 +1127,7 @@
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
     </row>
-    <row r="8" customFormat="false" ht="160.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="313.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="n">
         <v>1</v>
       </c>
@@ -1073,10 +1146,10 @@
       <c r="F8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="23" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -1109,7 +1182,7 @@
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
     </row>
-    <row r="9" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="384.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1122,10 +1195,10 @@
       <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
         <v>30</v>
@@ -1154,7 +1227,7 @@
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1166,7 +1239,7 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -1193,7 +1266,7 @@
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1206,10 +1279,10 @@
       <c r="F11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1236,7 +1309,7 @@
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1246,9 +1319,13 @@
       <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1275,19 +1352,19 @@
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1314,19 +1391,19 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1353,7 +1430,7 @@
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1388,15 +1465,15 @@
       <c r="AF15" s="14"/>
       <c r="AG15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="n">
         <v>2</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>21</v>
@@ -1433,7 +1510,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1472,7 +1549,7 @@
       <c r="AF17" s="14"/>
       <c r="AG17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1511,7 +1588,7 @@
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1550,7 +1627,7 @@
       <c r="AF19" s="14"/>
       <c r="AG19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1585,15 +1662,15 @@
       <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="n">
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>21</v>
@@ -1630,7 +1707,7 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1669,7 +1746,7 @@
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1708,7 +1785,7 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1747,7 +1824,7 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1782,15 +1859,15 @@
       <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="n">
         <v>4</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>21</v>
@@ -1827,7 +1904,7 @@
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -1866,7 +1943,7 @@
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1877,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="21"/>
-      <c r="G28" s="0"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -1905,7 +1982,7 @@
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1940,15 +2017,15 @@
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>21</v>
@@ -1985,7 +2062,7 @@
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2024,7 +2101,7 @@
       <c r="AF31" s="14"/>
       <c r="AG31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2063,7 +2140,7 @@
       <c r="AF32" s="14"/>
       <c r="AG32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2102,7 +2179,7 @@
       <c r="AF33" s="14"/>
       <c r="AG33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2137,15 +2214,15 @@
       <c r="AF34" s="14"/>
       <c r="AG34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="n">
         <v>6</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>21</v>
@@ -2182,7 +2259,7 @@
       <c r="AF35" s="14"/>
       <c r="AG35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2221,7 +2298,7 @@
       <c r="AF36" s="14"/>
       <c r="AG36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2260,7 +2337,7 @@
       <c r="AF37" s="14"/>
       <c r="AG37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -2299,7 +2376,7 @@
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2334,15 +2411,15 @@
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="n">
         <v>7</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>21</v>
@@ -2379,7 +2456,7 @@
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -2418,7 +2495,7 @@
       <c r="AF41" s="14"/>
       <c r="AG41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -2457,7 +2534,7 @@
       <c r="AF42" s="14"/>
       <c r="AG42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2496,7 +2573,7 @@
       <c r="AF43" s="14"/>
       <c r="AG43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2531,15 +2608,15 @@
       <c r="AF44" s="14"/>
       <c r="AG44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="n">
         <v>8</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>21</v>
@@ -2576,7 +2653,7 @@
       <c r="AF45" s="14"/>
       <c r="AG45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -2615,7 +2692,7 @@
       <c r="AF46" s="14"/>
       <c r="AG46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2654,7 +2731,7 @@
       <c r="AF47" s="14"/>
       <c r="AG47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2689,15 +2766,15 @@
       <c r="AF48" s="14"/>
       <c r="AG48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="n">
         <v>9</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>21</v>
@@ -2708,9 +2785,7 @@
       <c r="F49" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
         <v>55</v>
       </c>
@@ -2740,7 +2815,7 @@
       <c r="AF49" s="14"/>
       <c r="AG49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2753,9 +2828,7 @@
       <c r="F50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -2783,7 +2856,7 @@
       <c r="AF50" s="14"/>
       <c r="AG50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -2796,9 +2869,7 @@
       <c r="F51" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -2826,7 +2897,7 @@
       <c r="AF51" s="14"/>
       <c r="AG51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2865,7 +2936,7 @@
       <c r="AF52" s="14"/>
       <c r="AG52" s="14"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -2900,7 +2971,7 @@
       <c r="AF53" s="14"/>
       <c r="AG53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
         <v>10</v>
       </c>
@@ -2945,7 +3016,7 @@
       <c r="AF54" s="14"/>
       <c r="AG54" s="14"/>
     </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -2984,7 +3055,7 @@
       <c r="AF55" s="14"/>
       <c r="AG55" s="14"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -3023,7 +3094,7 @@
       <c r="AF56" s="14"/>
       <c r="AG56" s="14"/>
     </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -3062,7 +3133,7 @@
       <c r="AF57" s="14"/>
       <c r="AG57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3097,7 +3168,7 @@
       <c r="AF58" s="14"/>
       <c r="AG58" s="14"/>
     </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="n">
         <v>11</v>
       </c>
@@ -3142,7 +3213,7 @@
       <c r="AF59" s="14"/>
       <c r="AG59" s="14"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -3181,7 +3252,7 @@
       <c r="AF60" s="14"/>
       <c r="AG60" s="14"/>
     </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -3220,7 +3291,7 @@
       <c r="AF61" s="14"/>
       <c r="AG61" s="14"/>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -3259,7 +3330,7 @@
       <c r="AF62" s="14"/>
       <c r="AG62" s="14"/>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -3298,12 +3369,12 @@
       <c r="AF63" s="14"/>
       <c r="AG63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>22</v>
@@ -3337,7 +3408,7 @@
       <c r="AF64" s="14"/>
       <c r="AG64" s="14"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -3372,7 +3443,7 @@
       <c r="AF65" s="14"/>
       <c r="AG65" s="14"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="15"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3407,7 +3478,7 @@
       <c r="AF66" s="14"/>
       <c r="AG66" s="14"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3442,7 +3513,7 @@
       <c r="AF67" s="14"/>
       <c r="AG67" s="14"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3477,7 +3548,7 @@
       <c r="AF68" s="14"/>
       <c r="AG68" s="14"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3512,7 +3583,7 @@
       <c r="AF69" s="14"/>
       <c r="AG69" s="14"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3547,7 +3618,7 @@
       <c r="AF70" s="14"/>
       <c r="AG70" s="14"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3582,7 +3653,7 @@
       <c r="AF71" s="14"/>
       <c r="AG71" s="14"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -3617,7 +3688,7 @@
       <c r="AF72" s="14"/>
       <c r="AG72" s="14"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3652,7 +3723,7 @@
       <c r="AF73" s="14"/>
       <c r="AG73" s="14"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3687,7 +3758,7 @@
       <c r="AF74" s="14"/>
       <c r="AG74" s="14"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3722,7 +3793,7 @@
       <c r="AF75" s="14"/>
       <c r="AG75" s="14"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="15"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3757,7 +3828,7 @@
       <c r="AF76" s="14"/>
       <c r="AG76" s="14"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -3792,7 +3863,7 @@
       <c r="AF77" s="14"/>
       <c r="AG77" s="14"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3827,7 +3898,7 @@
       <c r="AF78" s="14"/>
       <c r="AG78" s="14"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3862,7 +3933,7 @@
       <c r="AF79" s="14"/>
       <c r="AG79" s="14"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -3897,7 +3968,7 @@
       <c r="AF80" s="14"/>
       <c r="AG80" s="14"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3932,7 +4003,7 @@
       <c r="AF81" s="14"/>
       <c r="AG81" s="14"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3967,7 +4038,7 @@
       <c r="AF82" s="14"/>
       <c r="AG82" s="14"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -4002,7 +4073,7 @@
       <c r="AF83" s="14"/>
       <c r="AG83" s="14"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -4037,7 +4108,7 @@
       <c r="AF84" s="14"/>
       <c r="AG84" s="14"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -4072,7 +4143,7 @@
       <c r="AF85" s="14"/>
       <c r="AG85" s="14"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -4107,7 +4178,7 @@
       <c r="AF86" s="14"/>
       <c r="AG86" s="14"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -4142,7 +4213,7 @@
       <c r="AF87" s="14"/>
       <c r="AG87" s="14"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4177,7 +4248,7 @@
       <c r="AF88" s="14"/>
       <c r="AG88" s="14"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -4212,7 +4283,7 @@
       <c r="AF89" s="14"/>
       <c r="AG89" s="14"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -4247,7 +4318,7 @@
       <c r="AF90" s="14"/>
       <c r="AG90" s="14"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="15"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -4282,7 +4353,7 @@
       <c r="AF91" s="14"/>
       <c r="AG91" s="14"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4317,7 +4388,7 @@
       <c r="AF92" s="14"/>
       <c r="AG92" s="14"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4352,7 +4423,7 @@
       <c r="AF93" s="14"/>
       <c r="AG93" s="14"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -4387,7 +4458,7 @@
       <c r="AF94" s="14"/>
       <c r="AG94" s="14"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4422,7 +4493,7 @@
       <c r="AF95" s="14"/>
       <c r="AG95" s="14"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4457,7 +4528,7 @@
       <c r="AF96" s="14"/>
       <c r="AG96" s="14"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4492,7 +4563,7 @@
       <c r="AF97" s="14"/>
       <c r="AG97" s="14"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="15"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4527,7 +4598,7 @@
       <c r="AF98" s="14"/>
       <c r="AG98" s="14"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="15"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4562,7 +4633,7 @@
       <c r="AF99" s="14"/>
       <c r="AG99" s="14"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="15"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4597,7 +4668,7 @@
       <c r="AF100" s="14"/>
       <c r="AG100" s="14"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -4632,7 +4703,7 @@
       <c r="AF101" s="14"/>
       <c r="AG101" s="14"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4667,7 +4738,7 @@
       <c r="AF102" s="14"/>
       <c r="AG102" s="14"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="15"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -4702,7 +4773,7 @@
       <c r="AF103" s="14"/>
       <c r="AG103" s="14"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4737,7 +4808,7 @@
       <c r="AF104" s="14"/>
       <c r="AG104" s="14"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4772,7 +4843,7 @@
       <c r="AF105" s="14"/>
       <c r="AG105" s="14"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="15"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -4807,7 +4878,7 @@
       <c r="AF106" s="14"/>
       <c r="AG106" s="14"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4842,7 +4913,7 @@
       <c r="AF107" s="14"/>
       <c r="AG107" s="14"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4877,7 +4948,7 @@
       <c r="AF108" s="14"/>
       <c r="AG108" s="14"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4912,7 +4983,7 @@
       <c r="AF109" s="14"/>
       <c r="AG109" s="14"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4947,7 +5018,7 @@
       <c r="AF110" s="14"/>
       <c r="AG110" s="14"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4982,7 +5053,7 @@
       <c r="AF111" s="14"/>
       <c r="AG111" s="14"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -5017,7 +5088,7 @@
       <c r="AF112" s="14"/>
       <c r="AG112" s="14"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5052,7 +5123,7 @@
       <c r="AF113" s="14"/>
       <c r="AG113" s="14"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5087,7 +5158,7 @@
       <c r="AF114" s="14"/>
       <c r="AG114" s="14"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="15"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5122,7 +5193,7 @@
       <c r="AF115" s="14"/>
       <c r="AG115" s="14"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5157,7 +5228,7 @@
       <c r="AF116" s="14"/>
       <c r="AG116" s="14"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -5192,7 +5263,7 @@
       <c r="AF117" s="14"/>
       <c r="AG117" s="14"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -5227,7 +5298,7 @@
       <c r="AF118" s="14"/>
       <c r="AG118" s="14"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -5262,7 +5333,7 @@
       <c r="AF119" s="14"/>
       <c r="AG119" s="14"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5297,7 +5368,7 @@
       <c r="AF120" s="14"/>
       <c r="AG120" s="14"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="15"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5332,7 +5403,7 @@
       <c r="AF121" s="14"/>
       <c r="AG121" s="14"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5367,7 +5438,7 @@
       <c r="AF122" s="14"/>
       <c r="AG122" s="14"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5402,7 +5473,7 @@
       <c r="AF123" s="14"/>
       <c r="AG123" s="14"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5437,7 +5508,7 @@
       <c r="AF124" s="14"/>
       <c r="AG124" s="14"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5472,7 +5543,7 @@
       <c r="AF125" s="14"/>
       <c r="AG125" s="14"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -5507,7 +5578,7 @@
       <c r="AF126" s="14"/>
       <c r="AG126" s="14"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5542,7 +5613,7 @@
       <c r="AF127" s="14"/>
       <c r="AG127" s="14"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="15"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5577,7 +5648,7 @@
       <c r="AF128" s="14"/>
       <c r="AG128" s="14"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -5612,7 +5683,7 @@
       <c r="AF129" s="14"/>
       <c r="AG129" s="14"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5647,7 +5718,7 @@
       <c r="AF130" s="14"/>
       <c r="AG130" s="14"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -5682,7 +5753,7 @@
       <c r="AF131" s="14"/>
       <c r="AG131" s="14"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="15"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -5717,7 +5788,7 @@
       <c r="AF132" s="14"/>
       <c r="AG132" s="14"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="15"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -5752,7 +5823,7 @@
       <c r="AF133" s="14"/>
       <c r="AG133" s="14"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="15"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -5787,7 +5858,7 @@
       <c r="AF134" s="14"/>
       <c r="AG134" s="14"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="15"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -5822,7 +5893,7 @@
       <c r="AF135" s="14"/>
       <c r="AG135" s="14"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="15"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -5857,7 +5928,7 @@
       <c r="AF136" s="14"/>
       <c r="AG136" s="14"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -5892,7 +5963,7 @@
       <c r="AF137" s="14"/>
       <c r="AG137" s="14"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -5927,7 +5998,7 @@
       <c r="AF138" s="14"/>
       <c r="AG138" s="14"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="15"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -5962,7 +6033,7 @@
       <c r="AF139" s="14"/>
       <c r="AG139" s="14"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="15"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -5997,7 +6068,7 @@
       <c r="AF140" s="14"/>
       <c r="AG140" s="14"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="15"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -6032,7 +6103,7 @@
       <c r="AF141" s="14"/>
       <c r="AG141" s="14"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="15"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -6067,7 +6138,7 @@
       <c r="AF142" s="14"/>
       <c r="AG142" s="14"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="15"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -6102,7 +6173,7 @@
       <c r="AF143" s="14"/>
       <c r="AG143" s="14"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -6137,7 +6208,7 @@
       <c r="AF144" s="14"/>
       <c r="AG144" s="14"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="15"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -6172,7 +6243,7 @@
       <c r="AF145" s="14"/>
       <c r="AG145" s="14"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -6207,7 +6278,7 @@
       <c r="AF146" s="14"/>
       <c r="AG146" s="14"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -6242,7 +6313,7 @@
       <c r="AF147" s="14"/>
       <c r="AG147" s="14"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -6277,7 +6348,7 @@
       <c r="AF148" s="14"/>
       <c r="AG148" s="14"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="15"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -6312,7 +6383,7 @@
       <c r="AF149" s="14"/>
       <c r="AG149" s="14"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="15"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -6347,7 +6418,7 @@
       <c r="AF150" s="14"/>
       <c r="AG150" s="14"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="15"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -6382,7 +6453,7 @@
       <c r="AF151" s="14"/>
       <c r="AG151" s="14"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -6417,7 +6488,7 @@
       <c r="AF152" s="14"/>
       <c r="AG152" s="14"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -6452,7 +6523,7 @@
       <c r="AF153" s="14"/>
       <c r="AG153" s="14"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -6487,7 +6558,7 @@
       <c r="AF154" s="14"/>
       <c r="AG154" s="14"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -6522,7 +6593,7 @@
       <c r="AF155" s="14"/>
       <c r="AG155" s="14"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -6557,7 +6628,7 @@
       <c r="AF156" s="14"/>
       <c r="AG156" s="14"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -6592,7 +6663,7 @@
       <c r="AF157" s="14"/>
       <c r="AG157" s="14"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -6627,7 +6698,7 @@
       <c r="AF158" s="14"/>
       <c r="AG158" s="14"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -6662,7 +6733,7 @@
       <c r="AF159" s="14"/>
       <c r="AG159" s="14"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -6697,7 +6768,7 @@
       <c r="AF160" s="14"/>
       <c r="AG160" s="14"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="15"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -6732,7 +6803,7 @@
       <c r="AF161" s="14"/>
       <c r="AG161" s="14"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="15"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -6767,7 +6838,7 @@
       <c r="AF162" s="14"/>
       <c r="AG162" s="14"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -6802,7 +6873,7 @@
       <c r="AF163" s="14"/>
       <c r="AG163" s="14"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="15"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -6837,7 +6908,7 @@
       <c r="AF164" s="14"/>
       <c r="AG164" s="14"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -6872,7 +6943,7 @@
       <c r="AF165" s="14"/>
       <c r="AG165" s="14"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -6907,7 +6978,7 @@
       <c r="AF166" s="14"/>
       <c r="AG166" s="14"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -6942,7 +7013,7 @@
       <c r="AF167" s="14"/>
       <c r="AG167" s="14"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="15"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -6977,7 +7048,7 @@
       <c r="AF168" s="14"/>
       <c r="AG168" s="14"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="15"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -7012,7 +7083,7 @@
       <c r="AF169" s="14"/>
       <c r="AG169" s="14"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="15"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -7047,7 +7118,7 @@
       <c r="AF170" s="14"/>
       <c r="AG170" s="14"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="15"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -7082,7 +7153,7 @@
       <c r="AF171" s="14"/>
       <c r="AG171" s="14"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -7117,7 +7188,7 @@
       <c r="AF172" s="14"/>
       <c r="AG172" s="14"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -7152,7 +7223,7 @@
       <c r="AF173" s="14"/>
       <c r="AG173" s="14"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -7187,7 +7258,7 @@
       <c r="AF174" s="14"/>
       <c r="AG174" s="14"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -7222,7 +7293,7 @@
       <c r="AF175" s="14"/>
       <c r="AG175" s="14"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="15"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -7257,7 +7328,7 @@
       <c r="AF176" s="14"/>
       <c r="AG176" s="14"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -7292,7 +7363,7 @@
       <c r="AF177" s="14"/>
       <c r="AG177" s="14"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="15"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -7327,7 +7398,7 @@
       <c r="AF178" s="14"/>
       <c r="AG178" s="14"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -7362,7 +7433,7 @@
       <c r="AF179" s="14"/>
       <c r="AG179" s="14"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="15"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -7397,7 +7468,7 @@
       <c r="AF180" s="14"/>
       <c r="AG180" s="14"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -7432,7 +7503,7 @@
       <c r="AF181" s="14"/>
       <c r="AG181" s="14"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="15"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -7467,7 +7538,7 @@
       <c r="AF182" s="14"/>
       <c r="AG182" s="14"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -7502,7 +7573,7 @@
       <c r="AF183" s="14"/>
       <c r="AG183" s="14"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -7537,7 +7608,7 @@
       <c r="AF184" s="14"/>
       <c r="AG184" s="14"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="15"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -7572,7 +7643,7 @@
       <c r="AF185" s="14"/>
       <c r="AG185" s="14"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="15"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -7607,7 +7678,7 @@
       <c r="AF186" s="14"/>
       <c r="AG186" s="14"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -7642,7 +7713,7 @@
       <c r="AF187" s="14"/>
       <c r="AG187" s="14"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="15"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -7677,7 +7748,7 @@
       <c r="AF188" s="14"/>
       <c r="AG188" s="14"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -7712,7 +7783,7 @@
       <c r="AF189" s="14"/>
       <c r="AG189" s="14"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="15"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -7747,7 +7818,7 @@
       <c r="AF190" s="14"/>
       <c r="AG190" s="14"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="15"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -7782,7 +7853,7 @@
       <c r="AF191" s="14"/>
       <c r="AG191" s="14"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="15"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -7817,7 +7888,7 @@
       <c r="AF192" s="14"/>
       <c r="AG192" s="14"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -7852,7 +7923,7 @@
       <c r="AF193" s="14"/>
       <c r="AG193" s="14"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -7887,7 +7958,7 @@
       <c r="AF194" s="14"/>
       <c r="AG194" s="14"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -7922,7 +7993,7 @@
       <c r="AF195" s="14"/>
       <c r="AG195" s="14"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="15"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -7957,7 +8028,7 @@
       <c r="AF196" s="14"/>
       <c r="AG196" s="14"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="15"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -7992,7 +8063,7 @@
       <c r="AF197" s="14"/>
       <c r="AG197" s="14"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="15"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -8027,7 +8098,7 @@
       <c r="AF198" s="14"/>
       <c r="AG198" s="14"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="15"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -8062,7 +8133,7 @@
       <c r="AF199" s="14"/>
       <c r="AG199" s="14"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -8097,7 +8168,7 @@
       <c r="AF200" s="14"/>
       <c r="AG200" s="14"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -8132,7 +8203,7 @@
       <c r="AF201" s="14"/>
       <c r="AG201" s="14"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -8167,7 +8238,7 @@
       <c r="AF202" s="14"/>
       <c r="AG202" s="14"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="15"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -8202,7 +8273,7 @@
       <c r="AF203" s="14"/>
       <c r="AG203" s="14"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -8237,7 +8308,7 @@
       <c r="AF204" s="14"/>
       <c r="AG204" s="14"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="15"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -8272,7 +8343,7 @@
       <c r="AF205" s="14"/>
       <c r="AG205" s="14"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -8307,7 +8378,7 @@
       <c r="AF206" s="14"/>
       <c r="AG206" s="14"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -8342,7 +8413,7 @@
       <c r="AF207" s="14"/>
       <c r="AG207" s="14"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -8377,7 +8448,7 @@
       <c r="AF208" s="14"/>
       <c r="AG208" s="14"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="15"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -8412,7 +8483,7 @@
       <c r="AF209" s="14"/>
       <c r="AG209" s="14"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -8447,7 +8518,7 @@
       <c r="AF210" s="14"/>
       <c r="AG210" s="14"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="15"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -8482,7 +8553,7 @@
       <c r="AF211" s="14"/>
       <c r="AG211" s="14"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -8517,7 +8588,7 @@
       <c r="AF212" s="14"/>
       <c r="AG212" s="14"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="15"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -8552,7 +8623,7 @@
       <c r="AF213" s="14"/>
       <c r="AG213" s="14"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -8587,7 +8658,7 @@
       <c r="AF214" s="14"/>
       <c r="AG214" s="14"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="15"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -8622,7 +8693,7 @@
       <c r="AF215" s="14"/>
       <c r="AG215" s="14"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -8657,7 +8728,7 @@
       <c r="AF216" s="14"/>
       <c r="AG216" s="14"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -8692,7 +8763,7 @@
       <c r="AF217" s="14"/>
       <c r="AG217" s="14"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -8727,7 +8798,7 @@
       <c r="AF218" s="14"/>
       <c r="AG218" s="14"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="15"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -8762,7 +8833,7 @@
       <c r="AF219" s="14"/>
       <c r="AG219" s="14"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -8797,7 +8868,7 @@
       <c r="AF220" s="14"/>
       <c r="AG220" s="14"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
@@ -8832,7 +8903,7 @@
       <c r="AF221" s="14"/>
       <c r="AG221" s="14"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
@@ -8867,7 +8938,7 @@
       <c r="AF222" s="14"/>
       <c r="AG222" s="14"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="15"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
@@ -8902,7 +8973,7 @@
       <c r="AF223" s="14"/>
       <c r="AG223" s="14"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -8937,7 +9008,7 @@
       <c r="AF224" s="14"/>
       <c r="AG224" s="14"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="15"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -8972,7 +9043,7 @@
       <c r="AF225" s="14"/>
       <c r="AG225" s="14"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="15"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -9007,7 +9078,7 @@
       <c r="AF226" s="14"/>
       <c r="AG226" s="14"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="15"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -9042,7 +9113,7 @@
       <c r="AF227" s="14"/>
       <c r="AG227" s="14"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="15"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -9077,7 +9148,7 @@
       <c r="AF228" s="14"/>
       <c r="AG228" s="14"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="15"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -9112,7 +9183,7 @@
       <c r="AF229" s="14"/>
       <c r="AG229" s="14"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -9147,7 +9218,7 @@
       <c r="AF230" s="14"/>
       <c r="AG230" s="14"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -9182,7 +9253,7 @@
       <c r="AF231" s="14"/>
       <c r="AG231" s="14"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="15"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
@@ -9217,7 +9288,7 @@
       <c r="AF232" s="14"/>
       <c r="AG232" s="14"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -9252,7 +9323,7 @@
       <c r="AF233" s="14"/>
       <c r="AG233" s="14"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -9287,7 +9358,7 @@
       <c r="AF234" s="14"/>
       <c r="AG234" s="14"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="15"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
@@ -9322,7 +9393,7 @@
       <c r="AF235" s="14"/>
       <c r="AG235" s="14"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
@@ -9357,7 +9428,7 @@
       <c r="AF236" s="14"/>
       <c r="AG236" s="14"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="15"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
@@ -9392,7 +9463,7 @@
       <c r="AF237" s="14"/>
       <c r="AG237" s="14"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
@@ -9427,7 +9498,7 @@
       <c r="AF238" s="14"/>
       <c r="AG238" s="14"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
@@ -9462,7 +9533,7 @@
       <c r="AF239" s="14"/>
       <c r="AG239" s="14"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
@@ -9497,7 +9568,7 @@
       <c r="AF240" s="14"/>
       <c r="AG240" s="14"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
@@ -9532,7 +9603,7 @@
       <c r="AF241" s="14"/>
       <c r="AG241" s="14"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -9567,7 +9638,7 @@
       <c r="AF242" s="14"/>
       <c r="AG242" s="14"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
@@ -9602,7 +9673,7 @@
       <c r="AF243" s="14"/>
       <c r="AG243" s="14"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
@@ -9637,7 +9708,7 @@
       <c r="AF244" s="14"/>
       <c r="AG244" s="14"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
@@ -9672,7 +9743,7 @@
       <c r="AF245" s="14"/>
       <c r="AG245" s="14"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="15"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
@@ -9707,7 +9778,7 @@
       <c r="AF246" s="14"/>
       <c r="AG246" s="14"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
@@ -9742,7 +9813,7 @@
       <c r="AF247" s="14"/>
       <c r="AG247" s="14"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
@@ -9777,7 +9848,7 @@
       <c r="AF248" s="14"/>
       <c r="AG248" s="14"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
@@ -9812,7 +9883,7 @@
       <c r="AF249" s="14"/>
       <c r="AG249" s="14"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="15"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
@@ -9847,7 +9918,7 @@
       <c r="AF250" s="14"/>
       <c r="AG250" s="14"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
@@ -9882,7 +9953,7 @@
       <c r="AF251" s="14"/>
       <c r="AG251" s="14"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="15"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
@@ -9917,7 +9988,7 @@
       <c r="AF252" s="14"/>
       <c r="AG252" s="14"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
@@ -9952,7 +10023,7 @@
       <c r="AF253" s="14"/>
       <c r="AG253" s="14"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="15"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
@@ -9987,7 +10058,7 @@
       <c r="AF254" s="14"/>
       <c r="AG254" s="14"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
@@ -10022,7 +10093,7 @@
       <c r="AF255" s="14"/>
       <c r="AG255" s="14"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="15"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
@@ -10057,7 +10128,7 @@
       <c r="AF256" s="14"/>
       <c r="AG256" s="14"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
@@ -10092,7 +10163,7 @@
       <c r="AF257" s="14"/>
       <c r="AG257" s="14"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="15"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
@@ -10127,7 +10198,7 @@
       <c r="AF258" s="14"/>
       <c r="AG258" s="14"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
@@ -10162,7 +10233,7 @@
       <c r="AF259" s="14"/>
       <c r="AG259" s="14"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="15"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
@@ -10197,7 +10268,7 @@
       <c r="AF260" s="14"/>
       <c r="AG260" s="14"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
@@ -10232,7 +10303,7 @@
       <c r="AF261" s="14"/>
       <c r="AG261" s="14"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="15"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
@@ -10267,7 +10338,7 @@
       <c r="AF262" s="14"/>
       <c r="AG262" s="14"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
@@ -10302,7 +10373,7 @@
       <c r="AF263" s="14"/>
       <c r="AG263" s="14"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
@@ -10337,7 +10408,7 @@
       <c r="AF264" s="14"/>
       <c r="AG264" s="14"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="15"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
@@ -10372,7 +10443,7 @@
       <c r="AF265" s="14"/>
       <c r="AG265" s="14"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="15"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
@@ -10407,7 +10478,7 @@
       <c r="AF266" s="14"/>
       <c r="AG266" s="14"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="15"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
@@ -10442,7 +10513,7 @@
       <c r="AF267" s="14"/>
       <c r="AG267" s="14"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="15"/>
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
@@ -10477,7 +10548,7 @@
       <c r="AF268" s="14"/>
       <c r="AG268" s="14"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="15"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
@@ -10512,7 +10583,7 @@
       <c r="AF269" s="14"/>
       <c r="AG269" s="14"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
@@ -10547,7 +10618,7 @@
       <c r="AF270" s="14"/>
       <c r="AG270" s="14"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
@@ -10582,7 +10653,7 @@
       <c r="AF271" s="14"/>
       <c r="AG271" s="14"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="15"/>
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
@@ -10617,7 +10688,7 @@
       <c r="AF272" s="14"/>
       <c r="AG272" s="14"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="15"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
@@ -10652,7 +10723,7 @@
       <c r="AF273" s="14"/>
       <c r="AG273" s="14"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="15"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
@@ -10687,7 +10758,7 @@
       <c r="AF274" s="14"/>
       <c r="AG274" s="14"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="15"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
@@ -10722,7 +10793,7 @@
       <c r="AF275" s="14"/>
       <c r="AG275" s="14"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15"/>
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
@@ -10757,7 +10828,7 @@
       <c r="AF276" s="14"/>
       <c r="AG276" s="14"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="15"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
@@ -10792,7 +10863,7 @@
       <c r="AF277" s="14"/>
       <c r="AG277" s="14"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="15"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
@@ -10827,7 +10898,7 @@
       <c r="AF278" s="14"/>
       <c r="AG278" s="14"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="15"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
@@ -10862,7 +10933,7 @@
       <c r="AF279" s="14"/>
       <c r="AG279" s="14"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="15"/>
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
@@ -10897,7 +10968,7 @@
       <c r="AF280" s="14"/>
       <c r="AG280" s="14"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="15"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
@@ -10932,7 +11003,7 @@
       <c r="AF281" s="14"/>
       <c r="AG281" s="14"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="15"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
@@ -10967,7 +11038,7 @@
       <c r="AF282" s="14"/>
       <c r="AG282" s="14"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="15"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -11002,7 +11073,7 @@
       <c r="AF283" s="14"/>
       <c r="AG283" s="14"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="15"/>
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
@@ -11037,7 +11108,7 @@
       <c r="AF284" s="14"/>
       <c r="AG284" s="14"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15"/>
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
@@ -11072,7 +11143,7 @@
       <c r="AF285" s="14"/>
       <c r="AG285" s="14"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="15"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
@@ -11107,7 +11178,7 @@
       <c r="AF286" s="14"/>
       <c r="AG286" s="14"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="15"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
@@ -11142,7 +11213,7 @@
       <c r="AF287" s="14"/>
       <c r="AG287" s="14"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="15"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
@@ -11177,7 +11248,7 @@
       <c r="AF288" s="14"/>
       <c r="AG288" s="14"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
@@ -11212,7 +11283,7 @@
       <c r="AF289" s="14"/>
       <c r="AG289" s="14"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
@@ -11247,7 +11318,7 @@
       <c r="AF290" s="14"/>
       <c r="AG290" s="14"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15"/>
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
@@ -11282,7 +11353,7 @@
       <c r="AF291" s="14"/>
       <c r="AG291" s="14"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="15"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
@@ -11317,7 +11388,7 @@
       <c r="AF292" s="14"/>
       <c r="AG292" s="14"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
@@ -11352,7 +11423,7 @@
       <c r="AF293" s="14"/>
       <c r="AG293" s="14"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
@@ -11387,7 +11458,7 @@
       <c r="AF294" s="14"/>
       <c r="AG294" s="14"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15"/>
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
@@ -11422,7 +11493,7 @@
       <c r="AF295" s="14"/>
       <c r="AG295" s="14"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15"/>
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
@@ -11457,7 +11528,7 @@
       <c r="AF296" s="14"/>
       <c r="AG296" s="14"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15"/>
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
@@ -11492,7 +11563,7 @@
       <c r="AF297" s="14"/>
       <c r="AG297" s="14"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15"/>
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
@@ -11527,7 +11598,7 @@
       <c r="AF298" s="14"/>
       <c r="AG298" s="14"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
@@ -11562,7 +11633,7 @@
       <c r="AF299" s="14"/>
       <c r="AG299" s="14"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="15"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
@@ -11597,7 +11668,7 @@
       <c r="AF300" s="14"/>
       <c r="AG300" s="14"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
@@ -11632,7 +11703,7 @@
       <c r="AF301" s="14"/>
       <c r="AG301" s="14"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
@@ -11667,7 +11738,7 @@
       <c r="AF302" s="14"/>
       <c r="AG302" s="14"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="15"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
@@ -11702,7 +11773,7 @@
       <c r="AF303" s="14"/>
       <c r="AG303" s="14"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
@@ -11737,7 +11808,7 @@
       <c r="AF304" s="14"/>
       <c r="AG304" s="14"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
@@ -11772,7 +11843,7 @@
       <c r="AF305" s="14"/>
       <c r="AG305" s="14"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
@@ -11807,7 +11878,7 @@
       <c r="AF306" s="14"/>
       <c r="AG306" s="14"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15"/>
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
@@ -11842,7 +11913,7 @@
       <c r="AF307" s="14"/>
       <c r="AG307" s="14"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
@@ -11877,7 +11948,7 @@
       <c r="AF308" s="14"/>
       <c r="AG308" s="14"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
@@ -11912,7 +11983,7 @@
       <c r="AF309" s="14"/>
       <c r="AG309" s="14"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
@@ -11947,7 +12018,7 @@
       <c r="AF310" s="14"/>
       <c r="AG310" s="14"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15"/>
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
@@ -11982,7 +12053,7 @@
       <c r="AF311" s="14"/>
       <c r="AG311" s="14"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="15"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
@@ -12017,7 +12088,7 @@
       <c r="AF312" s="14"/>
       <c r="AG312" s="14"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
@@ -12052,7 +12123,7 @@
       <c r="AF313" s="14"/>
       <c r="AG313" s="14"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
@@ -12087,7 +12158,7 @@
       <c r="AF314" s="14"/>
       <c r="AG314" s="14"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15"/>
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
@@ -12122,7 +12193,7 @@
       <c r="AF315" s="14"/>
       <c r="AG315" s="14"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
@@ -12157,7 +12228,7 @@
       <c r="AF316" s="14"/>
       <c r="AG316" s="14"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="15"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
@@ -12192,7 +12263,7 @@
       <c r="AF317" s="14"/>
       <c r="AG317" s="14"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15"/>
       <c r="B318" s="14"/>
       <c r="C318" s="14"/>
@@ -12227,7 +12298,7 @@
       <c r="AF318" s="14"/>
       <c r="AG318" s="14"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15"/>
       <c r="B319" s="14"/>
       <c r="C319" s="14"/>
@@ -12262,7 +12333,7 @@
       <c r="AF319" s="14"/>
       <c r="AG319" s="14"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15"/>
       <c r="B320" s="14"/>
       <c r="C320" s="14"/>
@@ -12297,7 +12368,7 @@
       <c r="AF320" s="14"/>
       <c r="AG320" s="14"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15"/>
       <c r="B321" s="14"/>
       <c r="C321" s="14"/>
@@ -12332,7 +12403,7 @@
       <c r="AF321" s="14"/>
       <c r="AG321" s="14"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="15"/>
       <c r="B322" s="14"/>
       <c r="C322" s="14"/>
@@ -12367,7 +12438,7 @@
       <c r="AF322" s="14"/>
       <c r="AG322" s="14"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15"/>
       <c r="B323" s="14"/>
       <c r="C323" s="14"/>
@@ -12402,7 +12473,7 @@
       <c r="AF323" s="14"/>
       <c r="AG323" s="14"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15"/>
       <c r="B324" s="14"/>
       <c r="C324" s="14"/>
@@ -12437,7 +12508,7 @@
       <c r="AF324" s="14"/>
       <c r="AG324" s="14"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15"/>
       <c r="B325" s="14"/>
       <c r="C325" s="14"/>
@@ -12472,7 +12543,7 @@
       <c r="AF325" s="14"/>
       <c r="AG325" s="14"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15"/>
       <c r="B326" s="14"/>
       <c r="C326" s="14"/>
@@ -12507,7 +12578,7 @@
       <c r="AF326" s="14"/>
       <c r="AG326" s="14"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15"/>
       <c r="B327" s="14"/>
       <c r="C327" s="14"/>
@@ -12542,7 +12613,7 @@
       <c r="AF327" s="14"/>
       <c r="AG327" s="14"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15"/>
       <c r="B328" s="14"/>
       <c r="C328" s="14"/>
@@ -12577,7 +12648,7 @@
       <c r="AF328" s="14"/>
       <c r="AG328" s="14"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="15"/>
       <c r="B329" s="14"/>
       <c r="C329" s="14"/>
@@ -12612,7 +12683,7 @@
       <c r="AF329" s="14"/>
       <c r="AG329" s="14"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15"/>
       <c r="B330" s="14"/>
       <c r="C330" s="14"/>
@@ -12647,7 +12718,7 @@
       <c r="AF330" s="14"/>
       <c r="AG330" s="14"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15"/>
       <c r="B331" s="14"/>
       <c r="C331" s="14"/>
@@ -12682,7 +12753,7 @@
       <c r="AF331" s="14"/>
       <c r="AG331" s="14"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="15"/>
       <c r="B332" s="14"/>
       <c r="C332" s="14"/>
@@ -12717,7 +12788,7 @@
       <c r="AF332" s="14"/>
       <c r="AG332" s="14"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15"/>
       <c r="B333" s="14"/>
       <c r="C333" s="14"/>
@@ -12752,7 +12823,7 @@
       <c r="AF333" s="14"/>
       <c r="AG333" s="14"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="15"/>
       <c r="B334" s="14"/>
       <c r="C334" s="14"/>
@@ -12787,7 +12858,7 @@
       <c r="AF334" s="14"/>
       <c r="AG334" s="14"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15"/>
       <c r="B335" s="14"/>
       <c r="C335" s="14"/>
@@ -12822,7 +12893,7 @@
       <c r="AF335" s="14"/>
       <c r="AG335" s="14"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="15"/>
       <c r="B336" s="14"/>
       <c r="C336" s="14"/>
@@ -12857,7 +12928,7 @@
       <c r="AF336" s="14"/>
       <c r="AG336" s="14"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="15"/>
       <c r="B337" s="14"/>
       <c r="C337" s="14"/>
@@ -12892,7 +12963,7 @@
       <c r="AF337" s="14"/>
       <c r="AG337" s="14"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15"/>
       <c r="B338" s="14"/>
       <c r="C338" s="14"/>
@@ -12927,7 +12998,7 @@
       <c r="AF338" s="14"/>
       <c r="AG338" s="14"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="15"/>
       <c r="B339" s="14"/>
       <c r="C339" s="14"/>
@@ -12962,7 +13033,7 @@
       <c r="AF339" s="14"/>
       <c r="AG339" s="14"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15"/>
       <c r="B340" s="14"/>
       <c r="C340" s="14"/>
@@ -12997,7 +13068,7 @@
       <c r="AF340" s="14"/>
       <c r="AG340" s="14"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15"/>
       <c r="B341" s="14"/>
       <c r="C341" s="14"/>
@@ -13032,7 +13103,7 @@
       <c r="AF341" s="14"/>
       <c r="AG341" s="14"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="15"/>
       <c r="B342" s="14"/>
       <c r="C342" s="14"/>
@@ -13067,7 +13138,7 @@
       <c r="AF342" s="14"/>
       <c r="AG342" s="14"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15"/>
       <c r="B343" s="14"/>
       <c r="C343" s="14"/>
@@ -13102,7 +13173,7 @@
       <c r="AF343" s="14"/>
       <c r="AG343" s="14"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="15"/>
       <c r="B344" s="14"/>
       <c r="C344" s="14"/>
@@ -13137,7 +13208,7 @@
       <c r="AF344" s="14"/>
       <c r="AG344" s="14"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15"/>
       <c r="B345" s="14"/>
       <c r="C345" s="14"/>
@@ -13172,7 +13243,7 @@
       <c r="AF345" s="14"/>
       <c r="AG345" s="14"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="15"/>
       <c r="B346" s="14"/>
       <c r="C346" s="14"/>
@@ -13207,7 +13278,7 @@
       <c r="AF346" s="14"/>
       <c r="AG346" s="14"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15"/>
       <c r="B347" s="14"/>
       <c r="C347" s="14"/>
@@ -13242,7 +13313,7 @@
       <c r="AF347" s="14"/>
       <c r="AG347" s="14"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15"/>
       <c r="B348" s="14"/>
       <c r="C348" s="14"/>
@@ -13277,7 +13348,7 @@
       <c r="AF348" s="14"/>
       <c r="AG348" s="14"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="15"/>
       <c r="B349" s="14"/>
       <c r="C349" s="14"/>
@@ -13312,7 +13383,7 @@
       <c r="AF349" s="14"/>
       <c r="AG349" s="14"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="15"/>
       <c r="B350" s="14"/>
       <c r="C350" s="14"/>
@@ -13347,7 +13418,7 @@
       <c r="AF350" s="14"/>
       <c r="AG350" s="14"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="15"/>
       <c r="B351" s="14"/>
       <c r="C351" s="14"/>
@@ -13382,7 +13453,7 @@
       <c r="AF351" s="14"/>
       <c r="AG351" s="14"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="15"/>
       <c r="B352" s="14"/>
       <c r="C352" s="14"/>
@@ -13417,7 +13488,7 @@
       <c r="AF352" s="14"/>
       <c r="AG352" s="14"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15"/>
       <c r="B353" s="14"/>
       <c r="C353" s="14"/>
@@ -13452,7 +13523,7 @@
       <c r="AF353" s="14"/>
       <c r="AG353" s="14"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15"/>
       <c r="B354" s="14"/>
       <c r="C354" s="14"/>
@@ -13487,7 +13558,7 @@
       <c r="AF354" s="14"/>
       <c r="AG354" s="14"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="15"/>
       <c r="B355" s="14"/>
       <c r="C355" s="14"/>
@@ -13522,7 +13593,7 @@
       <c r="AF355" s="14"/>
       <c r="AG355" s="14"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15"/>
       <c r="B356" s="14"/>
       <c r="C356" s="14"/>
@@ -13557,7 +13628,7 @@
       <c r="AF356" s="14"/>
       <c r="AG356" s="14"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="15"/>
       <c r="B357" s="14"/>
       <c r="C357" s="14"/>
@@ -13592,7 +13663,7 @@
       <c r="AF357" s="14"/>
       <c r="AG357" s="14"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15"/>
       <c r="B358" s="14"/>
       <c r="C358" s="14"/>
@@ -13627,7 +13698,7 @@
       <c r="AF358" s="14"/>
       <c r="AG358" s="14"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15"/>
       <c r="B359" s="14"/>
       <c r="C359" s="14"/>
@@ -13662,7 +13733,7 @@
       <c r="AF359" s="14"/>
       <c r="AG359" s="14"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15"/>
       <c r="B360" s="14"/>
       <c r="C360" s="14"/>
@@ -13697,7 +13768,7 @@
       <c r="AF360" s="14"/>
       <c r="AG360" s="14"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15"/>
       <c r="B361" s="14"/>
       <c r="C361" s="14"/>
@@ -13732,7 +13803,7 @@
       <c r="AF361" s="14"/>
       <c r="AG361" s="14"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="15"/>
       <c r="B362" s="14"/>
       <c r="C362" s="14"/>
@@ -13767,7 +13838,7 @@
       <c r="AF362" s="14"/>
       <c r="AG362" s="14"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15"/>
       <c r="B363" s="14"/>
       <c r="C363" s="14"/>
@@ -13802,7 +13873,7 @@
       <c r="AF363" s="14"/>
       <c r="AG363" s="14"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="15"/>
       <c r="B364" s="14"/>
       <c r="C364" s="14"/>
@@ -13837,7 +13908,7 @@
       <c r="AF364" s="14"/>
       <c r="AG364" s="14"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15"/>
       <c r="B365" s="14"/>
       <c r="C365" s="14"/>
@@ -13872,7 +13943,7 @@
       <c r="AF365" s="14"/>
       <c r="AG365" s="14"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="15"/>
       <c r="B366" s="14"/>
       <c r="C366" s="14"/>
@@ -13907,7 +13978,7 @@
       <c r="AF366" s="14"/>
       <c r="AG366" s="14"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="15"/>
       <c r="B367" s="14"/>
       <c r="C367" s="14"/>
@@ -13942,7 +14013,7 @@
       <c r="AF367" s="14"/>
       <c r="AG367" s="14"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="15"/>
       <c r="B368" s="14"/>
       <c r="C368" s="14"/>
@@ -13977,7 +14048,7 @@
       <c r="AF368" s="14"/>
       <c r="AG368" s="14"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="15"/>
       <c r="B369" s="14"/>
       <c r="C369" s="14"/>
@@ -14012,7 +14083,7 @@
       <c r="AF369" s="14"/>
       <c r="AG369" s="14"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="15"/>
       <c r="B370" s="14"/>
       <c r="C370" s="14"/>
@@ -14047,7 +14118,7 @@
       <c r="AF370" s="14"/>
       <c r="AG370" s="14"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="15"/>
       <c r="B371" s="14"/>
       <c r="C371" s="14"/>
@@ -14082,7 +14153,7 @@
       <c r="AF371" s="14"/>
       <c r="AG371" s="14"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15"/>
       <c r="B372" s="14"/>
       <c r="C372" s="14"/>
@@ -14117,7 +14188,7 @@
       <c r="AF372" s="14"/>
       <c r="AG372" s="14"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="15"/>
       <c r="B373" s="14"/>
       <c r="C373" s="14"/>
@@ -14152,7 +14223,7 @@
       <c r="AF373" s="14"/>
       <c r="AG373" s="14"/>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15"/>
       <c r="B374" s="14"/>
       <c r="C374" s="14"/>
@@ -14187,7 +14258,7 @@
       <c r="AF374" s="14"/>
       <c r="AG374" s="14"/>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="15"/>
       <c r="B375" s="14"/>
       <c r="C375" s="14"/>
@@ -14222,7 +14293,7 @@
       <c r="AF375" s="14"/>
       <c r="AG375" s="14"/>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="15"/>
       <c r="B376" s="14"/>
       <c r="C376" s="14"/>
@@ -14257,7 +14328,7 @@
       <c r="AF376" s="14"/>
       <c r="AG376" s="14"/>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15"/>
       <c r="B377" s="14"/>
       <c r="C377" s="14"/>
@@ -14292,7 +14363,7 @@
       <c r="AF377" s="14"/>
       <c r="AG377" s="14"/>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="15"/>
       <c r="B378" s="14"/>
       <c r="C378" s="14"/>
@@ -14327,7 +14398,7 @@
       <c r="AF378" s="14"/>
       <c r="AG378" s="14"/>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15"/>
       <c r="B379" s="14"/>
       <c r="C379" s="14"/>
@@ -14362,7 +14433,7 @@
       <c r="AF379" s="14"/>
       <c r="AG379" s="14"/>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="15"/>
       <c r="B380" s="14"/>
       <c r="C380" s="14"/>
@@ -14397,7 +14468,7 @@
       <c r="AF380" s="14"/>
       <c r="AG380" s="14"/>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15"/>
       <c r="B381" s="14"/>
       <c r="C381" s="14"/>
@@ -14432,7 +14503,7 @@
       <c r="AF381" s="14"/>
       <c r="AG381" s="14"/>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="15"/>
       <c r="B382" s="14"/>
       <c r="C382" s="14"/>
@@ -14467,7 +14538,7 @@
       <c r="AF382" s="14"/>
       <c r="AG382" s="14"/>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15"/>
       <c r="B383" s="14"/>
       <c r="C383" s="14"/>
@@ -14502,7 +14573,7 @@
       <c r="AF383" s="14"/>
       <c r="AG383" s="14"/>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="15"/>
       <c r="B384" s="14"/>
       <c r="C384" s="14"/>
@@ -14537,7 +14608,7 @@
       <c r="AF384" s="14"/>
       <c r="AG384" s="14"/>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15"/>
       <c r="B385" s="14"/>
       <c r="C385" s="14"/>
@@ -14572,7 +14643,7 @@
       <c r="AF385" s="14"/>
       <c r="AG385" s="14"/>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="15"/>
       <c r="B386" s="14"/>
       <c r="C386" s="14"/>
@@ -14607,7 +14678,7 @@
       <c r="AF386" s="14"/>
       <c r="AG386" s="14"/>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15"/>
       <c r="B387" s="14"/>
       <c r="C387" s="14"/>
@@ -14642,7 +14713,7 @@
       <c r="AF387" s="14"/>
       <c r="AG387" s="14"/>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="15"/>
       <c r="B388" s="14"/>
       <c r="C388" s="14"/>
@@ -14677,7 +14748,7 @@
       <c r="AF388" s="14"/>
       <c r="AG388" s="14"/>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="15"/>
       <c r="B389" s="14"/>
       <c r="C389" s="14"/>
@@ -14712,7 +14783,7 @@
       <c r="AF389" s="14"/>
       <c r="AG389" s="14"/>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="15"/>
       <c r="B390" s="14"/>
       <c r="C390" s="14"/>
@@ -14747,7 +14818,7 @@
       <c r="AF390" s="14"/>
       <c r="AG390" s="14"/>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="15"/>
       <c r="B391" s="14"/>
       <c r="C391" s="14"/>
@@ -14782,7 +14853,7 @@
       <c r="AF391" s="14"/>
       <c r="AG391" s="14"/>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="15"/>
       <c r="B392" s="14"/>
       <c r="C392" s="14"/>
@@ -14817,7 +14888,7 @@
       <c r="AF392" s="14"/>
       <c r="AG392" s="14"/>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="15"/>
       <c r="B393" s="14"/>
       <c r="C393" s="14"/>
@@ -14852,7 +14923,7 @@
       <c r="AF393" s="14"/>
       <c r="AG393" s="14"/>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15"/>
       <c r="B394" s="14"/>
       <c r="C394" s="14"/>
@@ -14887,7 +14958,7 @@
       <c r="AF394" s="14"/>
       <c r="AG394" s="14"/>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="15"/>
       <c r="B395" s="14"/>
       <c r="C395" s="14"/>
@@ -14922,7 +14993,7 @@
       <c r="AF395" s="14"/>
       <c r="AG395" s="14"/>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15"/>
       <c r="B396" s="14"/>
       <c r="C396" s="14"/>
@@ -14957,7 +15028,7 @@
       <c r="AF396" s="14"/>
       <c r="AG396" s="14"/>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="15"/>
       <c r="B397" s="14"/>
       <c r="C397" s="14"/>
@@ -14992,7 +15063,7 @@
       <c r="AF397" s="14"/>
       <c r="AG397" s="14"/>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15"/>
       <c r="B398" s="14"/>
       <c r="C398" s="14"/>
@@ -15027,7 +15098,7 @@
       <c r="AF398" s="14"/>
       <c r="AG398" s="14"/>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="15"/>
       <c r="B399" s="14"/>
       <c r="C399" s="14"/>
@@ -15062,7 +15133,7 @@
       <c r="AF399" s="14"/>
       <c r="AG399" s="14"/>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15"/>
       <c r="B400" s="14"/>
       <c r="C400" s="14"/>
@@ -15097,7 +15168,7 @@
       <c r="AF400" s="14"/>
       <c r="AG400" s="14"/>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="15"/>
       <c r="B401" s="14"/>
       <c r="C401" s="14"/>
@@ -15132,7 +15203,7 @@
       <c r="AF401" s="14"/>
       <c r="AG401" s="14"/>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="15"/>
       <c r="B402" s="14"/>
       <c r="C402" s="14"/>
@@ -15167,7 +15238,7 @@
       <c r="AF402" s="14"/>
       <c r="AG402" s="14"/>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="15"/>
       <c r="B403" s="14"/>
       <c r="C403" s="14"/>
@@ -15202,7 +15273,7 @@
       <c r="AF403" s="14"/>
       <c r="AG403" s="14"/>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15"/>
       <c r="B404" s="14"/>
       <c r="C404" s="14"/>
@@ -15237,7 +15308,7 @@
       <c r="AF404" s="14"/>
       <c r="AG404" s="14"/>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="15"/>
       <c r="B405" s="14"/>
       <c r="C405" s="14"/>
@@ -15272,7 +15343,7 @@
       <c r="AF405" s="14"/>
       <c r="AG405" s="14"/>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="15"/>
       <c r="B406" s="14"/>
       <c r="C406" s="14"/>
@@ -15307,7 +15378,7 @@
       <c r="AF406" s="14"/>
       <c r="AG406" s="14"/>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="15"/>
       <c r="B407" s="14"/>
       <c r="C407" s="14"/>
@@ -15342,7 +15413,7 @@
       <c r="AF407" s="14"/>
       <c r="AG407" s="14"/>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="15"/>
       <c r="B408" s="14"/>
       <c r="C408" s="14"/>
@@ -15377,7 +15448,7 @@
       <c r="AF408" s="14"/>
       <c r="AG408" s="14"/>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="15"/>
       <c r="B409" s="14"/>
       <c r="C409" s="14"/>
@@ -15412,7 +15483,7 @@
       <c r="AF409" s="14"/>
       <c r="AG409" s="14"/>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="15"/>
       <c r="B410" s="14"/>
       <c r="C410" s="14"/>
@@ -15447,7 +15518,7 @@
       <c r="AF410" s="14"/>
       <c r="AG410" s="14"/>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="15"/>
       <c r="B411" s="14"/>
       <c r="C411" s="14"/>
@@ -15482,7 +15553,7 @@
       <c r="AF411" s="14"/>
       <c r="AG411" s="14"/>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15"/>
       <c r="B412" s="14"/>
       <c r="C412" s="14"/>
@@ -15517,7 +15588,7 @@
       <c r="AF412" s="14"/>
       <c r="AG412" s="14"/>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15"/>
       <c r="B413" s="14"/>
       <c r="C413" s="14"/>
@@ -15552,7 +15623,7 @@
       <c r="AF413" s="14"/>
       <c r="AG413" s="14"/>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15"/>
       <c r="B414" s="14"/>
       <c r="C414" s="14"/>
@@ -15587,7 +15658,7 @@
       <c r="AF414" s="14"/>
       <c r="AG414" s="14"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="15"/>
       <c r="B415" s="14"/>
       <c r="C415" s="14"/>
@@ -15622,7 +15693,7 @@
       <c r="AF415" s="14"/>
       <c r="AG415" s="14"/>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15"/>
       <c r="B416" s="14"/>
       <c r="C416" s="14"/>
@@ -15657,7 +15728,7 @@
       <c r="AF416" s="14"/>
       <c r="AG416" s="14"/>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="15"/>
       <c r="B417" s="14"/>
       <c r="C417" s="14"/>
@@ -15692,7 +15763,7 @@
       <c r="AF417" s="14"/>
       <c r="AG417" s="14"/>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15"/>
       <c r="B418" s="14"/>
       <c r="C418" s="14"/>
@@ -15727,7 +15798,7 @@
       <c r="AF418" s="14"/>
       <c r="AG418" s="14"/>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15"/>
       <c r="B419" s="14"/>
       <c r="C419" s="14"/>
@@ -15762,7 +15833,7 @@
       <c r="AF419" s="14"/>
       <c r="AG419" s="14"/>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15"/>
       <c r="B420" s="14"/>
       <c r="C420" s="14"/>
@@ -15797,7 +15868,7 @@
       <c r="AF420" s="14"/>
       <c r="AG420" s="14"/>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="15"/>
       <c r="B421" s="14"/>
       <c r="C421" s="14"/>
@@ -15832,7 +15903,7 @@
       <c r="AF421" s="14"/>
       <c r="AG421" s="14"/>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="15"/>
       <c r="B422" s="14"/>
       <c r="C422" s="14"/>
@@ -15867,7 +15938,7 @@
       <c r="AF422" s="14"/>
       <c r="AG422" s="14"/>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="15"/>
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
@@ -15902,7 +15973,7 @@
       <c r="AF423" s="14"/>
       <c r="AG423" s="14"/>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="15"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
@@ -15937,7 +16008,7 @@
       <c r="AF424" s="14"/>
       <c r="AG424" s="14"/>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15"/>
       <c r="B425" s="14"/>
       <c r="C425" s="14"/>
@@ -15972,7 +16043,7 @@
       <c r="AF425" s="14"/>
       <c r="AG425" s="14"/>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="15"/>
       <c r="B426" s="14"/>
       <c r="C426" s="14"/>
@@ -16007,7 +16078,7 @@
       <c r="AF426" s="14"/>
       <c r="AG426" s="14"/>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15"/>
       <c r="B427" s="14"/>
       <c r="C427" s="14"/>
@@ -16042,7 +16113,7 @@
       <c r="AF427" s="14"/>
       <c r="AG427" s="14"/>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="15"/>
       <c r="B428" s="14"/>
       <c r="C428" s="14"/>
@@ -16077,7 +16148,7 @@
       <c r="AF428" s="14"/>
       <c r="AG428" s="14"/>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15"/>
       <c r="B429" s="14"/>
       <c r="C429" s="14"/>
@@ -16112,7 +16183,7 @@
       <c r="AF429" s="14"/>
       <c r="AG429" s="14"/>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="15"/>
       <c r="B430" s="14"/>
       <c r="C430" s="14"/>
@@ -16147,7 +16218,7 @@
       <c r="AF430" s="14"/>
       <c r="AG430" s="14"/>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15"/>
       <c r="B431" s="14"/>
       <c r="C431" s="14"/>
@@ -16182,7 +16253,7 @@
       <c r="AF431" s="14"/>
       <c r="AG431" s="14"/>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15"/>
       <c r="B432" s="14"/>
       <c r="C432" s="14"/>
@@ -16217,7 +16288,7 @@
       <c r="AF432" s="14"/>
       <c r="AG432" s="14"/>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="15"/>
       <c r="B433" s="14"/>
       <c r="C433" s="14"/>
@@ -16252,7 +16323,7 @@
       <c r="AF433" s="14"/>
       <c r="AG433" s="14"/>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="15"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
@@ -16287,7 +16358,7 @@
       <c r="AF434" s="14"/>
       <c r="AG434" s="14"/>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="15"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
@@ -16322,7 +16393,7 @@
       <c r="AF435" s="14"/>
       <c r="AG435" s="14"/>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="15"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
@@ -16357,7 +16428,7 @@
       <c r="AF436" s="14"/>
       <c r="AG436" s="14"/>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="15"/>
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
@@ -16392,7 +16463,7 @@
       <c r="AF437" s="14"/>
       <c r="AG437" s="14"/>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15"/>
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
@@ -16427,7 +16498,7 @@
       <c r="AF438" s="14"/>
       <c r="AG438" s="14"/>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="15"/>
       <c r="B439" s="14"/>
       <c r="C439" s="14"/>
@@ -16462,7 +16533,7 @@
       <c r="AF439" s="14"/>
       <c r="AG439" s="14"/>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15"/>
       <c r="B440" s="14"/>
       <c r="C440" s="14"/>
@@ -16497,7 +16568,7 @@
       <c r="AF440" s="14"/>
       <c r="AG440" s="14"/>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15"/>
       <c r="B441" s="14"/>
       <c r="C441" s="14"/>
@@ -16532,7 +16603,7 @@
       <c r="AF441" s="14"/>
       <c r="AG441" s="14"/>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15"/>
       <c r="B442" s="14"/>
       <c r="C442" s="14"/>
@@ -16567,7 +16638,7 @@
       <c r="AF442" s="14"/>
       <c r="AG442" s="14"/>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
@@ -16602,7 +16673,7 @@
       <c r="AF443" s="14"/>
       <c r="AG443" s="14"/>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
@@ -16637,7 +16708,7 @@
       <c r="AF444" s="14"/>
       <c r="AG444" s="14"/>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
@@ -16672,7 +16743,7 @@
       <c r="AF445" s="14"/>
       <c r="AG445" s="14"/>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15"/>
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
@@ -16707,7 +16778,7 @@
       <c r="AF446" s="14"/>
       <c r="AG446" s="14"/>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15"/>
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
@@ -16742,7 +16813,7 @@
       <c r="AF447" s="14"/>
       <c r="AG447" s="14"/>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15"/>
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
@@ -16777,7 +16848,7 @@
       <c r="AF448" s="14"/>
       <c r="AG448" s="14"/>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="15"/>
       <c r="B449" s="14"/>
       <c r="C449" s="14"/>
@@ -16812,7 +16883,7 @@
       <c r="AF449" s="14"/>
       <c r="AG449" s="14"/>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
@@ -16847,7 +16918,7 @@
       <c r="AF450" s="14"/>
       <c r="AG450" s="14"/>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="15"/>
       <c r="B451" s="14"/>
       <c r="C451" s="14"/>
@@ -16882,7 +16953,7 @@
       <c r="AF451" s="14"/>
       <c r="AG451" s="14"/>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15"/>
       <c r="B452" s="14"/>
       <c r="C452" s="14"/>
@@ -16917,7 +16988,7 @@
       <c r="AF452" s="14"/>
       <c r="AG452" s="14"/>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="15"/>
       <c r="B453" s="14"/>
       <c r="C453" s="14"/>
@@ -16952,7 +17023,7 @@
       <c r="AF453" s="14"/>
       <c r="AG453" s="14"/>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="15"/>
       <c r="B454" s="14"/>
       <c r="C454" s="14"/>
@@ -16987,7 +17058,7 @@
       <c r="AF454" s="14"/>
       <c r="AG454" s="14"/>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="15"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
@@ -17022,7 +17093,7 @@
       <c r="AF455" s="14"/>
       <c r="AG455" s="14"/>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
@@ -17057,7 +17128,7 @@
       <c r="AF456" s="14"/>
       <c r="AG456" s="14"/>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="15"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
@@ -17092,7 +17163,7 @@
       <c r="AF457" s="14"/>
       <c r="AG457" s="14"/>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="15"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
@@ -17127,7 +17198,7 @@
       <c r="AF458" s="14"/>
       <c r="AG458" s="14"/>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="15"/>
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
@@ -17162,7 +17233,7 @@
       <c r="AF459" s="14"/>
       <c r="AG459" s="14"/>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15"/>
       <c r="B460" s="14"/>
       <c r="C460" s="14"/>
@@ -17197,7 +17268,7 @@
       <c r="AF460" s="14"/>
       <c r="AG460" s="14"/>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15"/>
       <c r="B461" s="14"/>
       <c r="C461" s="14"/>
@@ -17232,7 +17303,7 @@
       <c r="AF461" s="14"/>
       <c r="AG461" s="14"/>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="15"/>
       <c r="B462" s="14"/>
       <c r="C462" s="14"/>
@@ -17267,7 +17338,7 @@
       <c r="AF462" s="14"/>
       <c r="AG462" s="14"/>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="15"/>
       <c r="B463" s="14"/>
       <c r="C463" s="14"/>
@@ -17302,7 +17373,7 @@
       <c r="AF463" s="14"/>
       <c r="AG463" s="14"/>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="15"/>
       <c r="B464" s="14"/>
       <c r="C464" s="14"/>
@@ -17337,7 +17408,7 @@
       <c r="AF464" s="14"/>
       <c r="AG464" s="14"/>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="15"/>
       <c r="B465" s="14"/>
       <c r="C465" s="14"/>
@@ -17372,7 +17443,7 @@
       <c r="AF465" s="14"/>
       <c r="AG465" s="14"/>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="15"/>
       <c r="B466" s="14"/>
       <c r="C466" s="14"/>
@@ -17407,7 +17478,7 @@
       <c r="AF466" s="14"/>
       <c r="AG466" s="14"/>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="15"/>
       <c r="B467" s="14"/>
       <c r="C467" s="14"/>
@@ -17442,7 +17513,7 @@
       <c r="AF467" s="14"/>
       <c r="AG467" s="14"/>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="15"/>
       <c r="B468" s="14"/>
       <c r="C468" s="14"/>
@@ -17477,7 +17548,7 @@
       <c r="AF468" s="14"/>
       <c r="AG468" s="14"/>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="15"/>
       <c r="B469" s="14"/>
       <c r="C469" s="14"/>
@@ -17512,7 +17583,7 @@
       <c r="AF469" s="14"/>
       <c r="AG469" s="14"/>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="15"/>
       <c r="B470" s="14"/>
       <c r="C470" s="14"/>
@@ -17547,7 +17618,7 @@
       <c r="AF470" s="14"/>
       <c r="AG470" s="14"/>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="15"/>
       <c r="B471" s="14"/>
       <c r="C471" s="14"/>
@@ -17582,7 +17653,7 @@
       <c r="AF471" s="14"/>
       <c r="AG471" s="14"/>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="15"/>
       <c r="B472" s="14"/>
       <c r="C472" s="14"/>
@@ -17617,7 +17688,7 @@
       <c r="AF472" s="14"/>
       <c r="AG472" s="14"/>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="15"/>
       <c r="B473" s="14"/>
       <c r="C473" s="14"/>
@@ -17652,7 +17723,7 @@
       <c r="AF473" s="14"/>
       <c r="AG473" s="14"/>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="15"/>
       <c r="B474" s="14"/>
       <c r="C474" s="14"/>
@@ -17687,7 +17758,7 @@
       <c r="AF474" s="14"/>
       <c r="AG474" s="14"/>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="15"/>
       <c r="B475" s="14"/>
       <c r="C475" s="14"/>
@@ -17722,7 +17793,7 @@
       <c r="AF475" s="14"/>
       <c r="AG475" s="14"/>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="15"/>
       <c r="B476" s="14"/>
       <c r="C476" s="14"/>
@@ -17757,7 +17828,7 @@
       <c r="AF476" s="14"/>
       <c r="AG476" s="14"/>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="15"/>
       <c r="B477" s="14"/>
       <c r="C477" s="14"/>
@@ -17792,7 +17863,7 @@
       <c r="AF477" s="14"/>
       <c r="AG477" s="14"/>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="15"/>
       <c r="B478" s="14"/>
       <c r="C478" s="14"/>
@@ -17827,7 +17898,7 @@
       <c r="AF478" s="14"/>
       <c r="AG478" s="14"/>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="15"/>
       <c r="B479" s="14"/>
       <c r="C479" s="14"/>
@@ -17862,7 +17933,7 @@
       <c r="AF479" s="14"/>
       <c r="AG479" s="14"/>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="15"/>
       <c r="B480" s="14"/>
       <c r="C480" s="14"/>
@@ -17897,7 +17968,7 @@
       <c r="AF480" s="14"/>
       <c r="AG480" s="14"/>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="15"/>
       <c r="B481" s="14"/>
       <c r="C481" s="14"/>
@@ -17932,7 +18003,7 @@
       <c r="AF481" s="14"/>
       <c r="AG481" s="14"/>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="15"/>
       <c r="B482" s="14"/>
       <c r="C482" s="14"/>
@@ -17967,7 +18038,7 @@
       <c r="AF482" s="14"/>
       <c r="AG482" s="14"/>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="15"/>
       <c r="B483" s="14"/>
       <c r="C483" s="14"/>
@@ -18002,7 +18073,7 @@
       <c r="AF483" s="14"/>
       <c r="AG483" s="14"/>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="15"/>
       <c r="B484" s="14"/>
       <c r="C484" s="14"/>
@@ -18037,7 +18108,7 @@
       <c r="AF484" s="14"/>
       <c r="AG484" s="14"/>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="15"/>
       <c r="B485" s="14"/>
       <c r="C485" s="14"/>
@@ -18072,7 +18143,7 @@
       <c r="AF485" s="14"/>
       <c r="AG485" s="14"/>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="15"/>
       <c r="B486" s="14"/>
       <c r="C486" s="14"/>
@@ -18107,7 +18178,7 @@
       <c r="AF486" s="14"/>
       <c r="AG486" s="14"/>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="15"/>
       <c r="B487" s="14"/>
       <c r="C487" s="14"/>
@@ -18142,7 +18213,7 @@
       <c r="AF487" s="14"/>
       <c r="AG487" s="14"/>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="15"/>
       <c r="B488" s="14"/>
       <c r="C488" s="14"/>
@@ -18177,7 +18248,7 @@
       <c r="AF488" s="14"/>
       <c r="AG488" s="14"/>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="15"/>
       <c r="B489" s="14"/>
       <c r="C489" s="14"/>
@@ -18212,7 +18283,7 @@
       <c r="AF489" s="14"/>
       <c r="AG489" s="14"/>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="15"/>
       <c r="B490" s="14"/>
       <c r="C490" s="14"/>
@@ -18247,7 +18318,7 @@
       <c r="AF490" s="14"/>
       <c r="AG490" s="14"/>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="15"/>
       <c r="B491" s="14"/>
       <c r="C491" s="14"/>
@@ -18282,7 +18353,7 @@
       <c r="AF491" s="14"/>
       <c r="AG491" s="14"/>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="15"/>
       <c r="B492" s="14"/>
       <c r="C492" s="14"/>
@@ -18317,7 +18388,7 @@
       <c r="AF492" s="14"/>
       <c r="AG492" s="14"/>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="15"/>
       <c r="B493" s="14"/>
       <c r="C493" s="14"/>
@@ -18352,7 +18423,7 @@
       <c r="AF493" s="14"/>
       <c r="AG493" s="14"/>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="15"/>
       <c r="B494" s="14"/>
       <c r="C494" s="14"/>
@@ -18387,7 +18458,7 @@
       <c r="AF494" s="14"/>
       <c r="AG494" s="14"/>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="15"/>
       <c r="B495" s="14"/>
       <c r="C495" s="14"/>
@@ -18422,7 +18493,7 @@
       <c r="AF495" s="14"/>
       <c r="AG495" s="14"/>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="15"/>
       <c r="B496" s="14"/>
       <c r="C496" s="14"/>
@@ -18457,7 +18528,7 @@
       <c r="AF496" s="14"/>
       <c r="AG496" s="14"/>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="15"/>
       <c r="B497" s="14"/>
       <c r="C497" s="14"/>
@@ -18492,7 +18563,7 @@
       <c r="AF497" s="14"/>
       <c r="AG497" s="14"/>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="15"/>
       <c r="B498" s="14"/>
       <c r="C498" s="14"/>
@@ -18527,7 +18598,7 @@
       <c r="AF498" s="14"/>
       <c r="AG498" s="14"/>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="15"/>
       <c r="B499" s="14"/>
       <c r="C499" s="14"/>
@@ -18562,7 +18633,7 @@
       <c r="AF499" s="14"/>
       <c r="AG499" s="14"/>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="15"/>
       <c r="B500" s="14"/>
       <c r="C500" s="14"/>
@@ -18597,7 +18668,7 @@
       <c r="AF500" s="14"/>
       <c r="AG500" s="14"/>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="15"/>
       <c r="B501" s="14"/>
       <c r="C501" s="14"/>
@@ -18632,7 +18703,7 @@
       <c r="AF501" s="14"/>
       <c r="AG501" s="14"/>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="15"/>
       <c r="B502" s="14"/>
       <c r="C502" s="14"/>
@@ -18667,7 +18738,7 @@
       <c r="AF502" s="14"/>
       <c r="AG502" s="14"/>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="15"/>
       <c r="B503" s="14"/>
       <c r="C503" s="14"/>
@@ -18702,7 +18773,7 @@
       <c r="AF503" s="14"/>
       <c r="AG503" s="14"/>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="15"/>
       <c r="B504" s="14"/>
       <c r="C504" s="14"/>
@@ -18737,7 +18808,7 @@
       <c r="AF504" s="14"/>
       <c r="AG504" s="14"/>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="15"/>
       <c r="B505" s="14"/>
       <c r="C505" s="14"/>
@@ -18772,7 +18843,7 @@
       <c r="AF505" s="14"/>
       <c r="AG505" s="14"/>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="15"/>
       <c r="B506" s="14"/>
       <c r="C506" s="14"/>
@@ -18807,7 +18878,7 @@
       <c r="AF506" s="14"/>
       <c r="AG506" s="14"/>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="15"/>
       <c r="B507" s="14"/>
       <c r="C507" s="14"/>
@@ -18842,7 +18913,7 @@
       <c r="AF507" s="14"/>
       <c r="AG507" s="14"/>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="15"/>
       <c r="B508" s="14"/>
       <c r="C508" s="14"/>
@@ -18877,7 +18948,7 @@
       <c r="AF508" s="14"/>
       <c r="AG508" s="14"/>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="15"/>
       <c r="B509" s="14"/>
       <c r="C509" s="14"/>
@@ -18912,7 +18983,7 @@
       <c r="AF509" s="14"/>
       <c r="AG509" s="14"/>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="15"/>
       <c r="B510" s="14"/>
       <c r="C510" s="14"/>
@@ -18947,7 +19018,7 @@
       <c r="AF510" s="14"/>
       <c r="AG510" s="14"/>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="15"/>
       <c r="B511" s="14"/>
       <c r="C511" s="14"/>
@@ -18982,7 +19053,7 @@
       <c r="AF511" s="14"/>
       <c r="AG511" s="14"/>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="15"/>
       <c r="B512" s="14"/>
       <c r="C512" s="14"/>
@@ -19017,7 +19088,7 @@
       <c r="AF512" s="14"/>
       <c r="AG512" s="14"/>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="15"/>
       <c r="B513" s="14"/>
       <c r="C513" s="14"/>
@@ -19052,7 +19123,7 @@
       <c r="AF513" s="14"/>
       <c r="AG513" s="14"/>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="15"/>
       <c r="B514" s="14"/>
       <c r="C514" s="14"/>
@@ -19087,7 +19158,7 @@
       <c r="AF514" s="14"/>
       <c r="AG514" s="14"/>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="15"/>
       <c r="B515" s="14"/>
       <c r="C515" s="14"/>
@@ -19122,7 +19193,7 @@
       <c r="AF515" s="14"/>
       <c r="AG515" s="14"/>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="15"/>
       <c r="B516" s="14"/>
       <c r="C516" s="14"/>
@@ -19157,7 +19228,7 @@
       <c r="AF516" s="14"/>
       <c r="AG516" s="14"/>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="15"/>
       <c r="B517" s="14"/>
       <c r="C517" s="14"/>
@@ -19192,7 +19263,7 @@
       <c r="AF517" s="14"/>
       <c r="AG517" s="14"/>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="15"/>
       <c r="B518" s="14"/>
       <c r="C518" s="14"/>
@@ -19227,7 +19298,7 @@
       <c r="AF518" s="14"/>
       <c r="AG518" s="14"/>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="15"/>
       <c r="B519" s="14"/>
       <c r="C519" s="14"/>
@@ -19262,7 +19333,7 @@
       <c r="AF519" s="14"/>
       <c r="AG519" s="14"/>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="15"/>
       <c r="B520" s="14"/>
       <c r="C520" s="14"/>
@@ -19297,7 +19368,7 @@
       <c r="AF520" s="14"/>
       <c r="AG520" s="14"/>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="15"/>
       <c r="B521" s="14"/>
       <c r="C521" s="14"/>
@@ -19332,7 +19403,7 @@
       <c r="AF521" s="14"/>
       <c r="AG521" s="14"/>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="15"/>
       <c r="B522" s="14"/>
       <c r="C522" s="14"/>
@@ -19367,7 +19438,7 @@
       <c r="AF522" s="14"/>
       <c r="AG522" s="14"/>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="15"/>
       <c r="B523" s="14"/>
       <c r="C523" s="14"/>
@@ -19402,7 +19473,7 @@
       <c r="AF523" s="14"/>
       <c r="AG523" s="14"/>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="15"/>
       <c r="B524" s="14"/>
       <c r="C524" s="14"/>
@@ -19437,7 +19508,7 @@
       <c r="AF524" s="14"/>
       <c r="AG524" s="14"/>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="15"/>
       <c r="B525" s="14"/>
       <c r="C525" s="14"/>
@@ -19472,7 +19543,7 @@
       <c r="AF525" s="14"/>
       <c r="AG525" s="14"/>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="15"/>
       <c r="B526" s="14"/>
       <c r="C526" s="14"/>
@@ -19507,7 +19578,7 @@
       <c r="AF526" s="14"/>
       <c r="AG526" s="14"/>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="15"/>
       <c r="B527" s="14"/>
       <c r="C527" s="14"/>
@@ -19542,7 +19613,7 @@
       <c r="AF527" s="14"/>
       <c r="AG527" s="14"/>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="15"/>
       <c r="B528" s="14"/>
       <c r="C528" s="14"/>
@@ -19577,7 +19648,7 @@
       <c r="AF528" s="14"/>
       <c r="AG528" s="14"/>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="15"/>
       <c r="B529" s="14"/>
       <c r="C529" s="14"/>
@@ -19612,7 +19683,7 @@
       <c r="AF529" s="14"/>
       <c r="AG529" s="14"/>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="15"/>
       <c r="B530" s="14"/>
       <c r="C530" s="14"/>
@@ -19647,7 +19718,7 @@
       <c r="AF530" s="14"/>
       <c r="AG530" s="14"/>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="15"/>
       <c r="B531" s="14"/>
       <c r="C531" s="14"/>
@@ -19682,7 +19753,7 @@
       <c r="AF531" s="14"/>
       <c r="AG531" s="14"/>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="15"/>
       <c r="B532" s="14"/>
       <c r="C532" s="14"/>
@@ -19717,7 +19788,7 @@
       <c r="AF532" s="14"/>
       <c r="AG532" s="14"/>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="15"/>
       <c r="B533" s="14"/>
       <c r="C533" s="14"/>
@@ -19752,7 +19823,7 @@
       <c r="AF533" s="14"/>
       <c r="AG533" s="14"/>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="15"/>
       <c r="B534" s="14"/>
       <c r="C534" s="14"/>
@@ -19787,7 +19858,7 @@
       <c r="AF534" s="14"/>
       <c r="AG534" s="14"/>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="15"/>
       <c r="B535" s="14"/>
       <c r="C535" s="14"/>
@@ -19822,7 +19893,7 @@
       <c r="AF535" s="14"/>
       <c r="AG535" s="14"/>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="15"/>
       <c r="B536" s="14"/>
       <c r="C536" s="14"/>
@@ -19857,7 +19928,7 @@
       <c r="AF536" s="14"/>
       <c r="AG536" s="14"/>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="15"/>
       <c r="B537" s="14"/>
       <c r="C537" s="14"/>
@@ -19892,7 +19963,7 @@
       <c r="AF537" s="14"/>
       <c r="AG537" s="14"/>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="15"/>
       <c r="B538" s="14"/>
       <c r="C538" s="14"/>
@@ -19927,7 +19998,7 @@
       <c r="AF538" s="14"/>
       <c r="AG538" s="14"/>
     </row>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="15"/>
       <c r="B539" s="14"/>
       <c r="C539" s="14"/>
@@ -19962,7 +20033,7 @@
       <c r="AF539" s="14"/>
       <c r="AG539" s="14"/>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="15"/>
       <c r="B540" s="14"/>
       <c r="C540" s="14"/>
@@ -19997,7 +20068,7 @@
       <c r="AF540" s="14"/>
       <c r="AG540" s="14"/>
     </row>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="15"/>
       <c r="B541" s="14"/>
       <c r="C541" s="14"/>
@@ -20032,7 +20103,7 @@
       <c r="AF541" s="14"/>
       <c r="AG541" s="14"/>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="15"/>
       <c r="B542" s="14"/>
       <c r="C542" s="14"/>
@@ -20067,7 +20138,7 @@
       <c r="AF542" s="14"/>
       <c r="AG542" s="14"/>
     </row>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="15"/>
       <c r="B543" s="14"/>
       <c r="C543" s="14"/>
@@ -20102,7 +20173,7 @@
       <c r="AF543" s="14"/>
       <c r="AG543" s="14"/>
     </row>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="15"/>
       <c r="B544" s="14"/>
       <c r="C544" s="14"/>
@@ -20137,7 +20208,7 @@
       <c r="AF544" s="14"/>
       <c r="AG544" s="14"/>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="15"/>
       <c r="B545" s="14"/>
       <c r="C545" s="14"/>
@@ -20172,7 +20243,7 @@
       <c r="AF545" s="14"/>
       <c r="AG545" s="14"/>
     </row>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="15"/>
       <c r="B546" s="14"/>
       <c r="C546" s="14"/>
@@ -20207,7 +20278,7 @@
       <c r="AF546" s="14"/>
       <c r="AG546" s="14"/>
     </row>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="15"/>
       <c r="B547" s="14"/>
       <c r="C547" s="14"/>
@@ -20242,7 +20313,7 @@
       <c r="AF547" s="14"/>
       <c r="AG547" s="14"/>
     </row>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="15"/>
       <c r="B548" s="14"/>
       <c r="C548" s="14"/>
@@ -20277,7 +20348,7 @@
       <c r="AF548" s="14"/>
       <c r="AG548" s="14"/>
     </row>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="15"/>
       <c r="B549" s="14"/>
       <c r="C549" s="14"/>
@@ -20312,7 +20383,7 @@
       <c r="AF549" s="14"/>
       <c r="AG549" s="14"/>
     </row>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="15"/>
       <c r="B550" s="14"/>
       <c r="C550" s="14"/>
@@ -20347,7 +20418,7 @@
       <c r="AF550" s="14"/>
       <c r="AG550" s="14"/>
     </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="15"/>
       <c r="B551" s="14"/>
       <c r="C551" s="14"/>
@@ -20382,7 +20453,7 @@
       <c r="AF551" s="14"/>
       <c r="AG551" s="14"/>
     </row>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="15"/>
       <c r="B552" s="14"/>
       <c r="C552" s="14"/>
@@ -20417,7 +20488,7 @@
       <c r="AF552" s="14"/>
       <c r="AG552" s="14"/>
     </row>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="15"/>
       <c r="B553" s="14"/>
       <c r="C553" s="14"/>
@@ -20452,7 +20523,7 @@
       <c r="AF553" s="14"/>
       <c r="AG553" s="14"/>
     </row>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="15"/>
       <c r="B554" s="14"/>
       <c r="C554" s="14"/>
@@ -20487,7 +20558,7 @@
       <c r="AF554" s="14"/>
       <c r="AG554" s="14"/>
     </row>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="15"/>
       <c r="B555" s="14"/>
       <c r="C555" s="14"/>
@@ -20522,7 +20593,7 @@
       <c r="AF555" s="14"/>
       <c r="AG555" s="14"/>
     </row>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="15"/>
       <c r="B556" s="14"/>
       <c r="C556" s="14"/>
@@ -20557,7 +20628,7 @@
       <c r="AF556" s="14"/>
       <c r="AG556" s="14"/>
     </row>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="15"/>
       <c r="B557" s="14"/>
       <c r="C557" s="14"/>
@@ -20592,7 +20663,7 @@
       <c r="AF557" s="14"/>
       <c r="AG557" s="14"/>
     </row>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="15"/>
       <c r="B558" s="14"/>
       <c r="C558" s="14"/>
@@ -20627,7 +20698,7 @@
       <c r="AF558" s="14"/>
       <c r="AG558" s="14"/>
     </row>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="15"/>
       <c r="B559" s="14"/>
       <c r="C559" s="14"/>
@@ -20662,7 +20733,7 @@
       <c r="AF559" s="14"/>
       <c r="AG559" s="14"/>
     </row>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="15"/>
       <c r="B560" s="14"/>
       <c r="C560" s="14"/>
@@ -20697,7 +20768,7 @@
       <c r="AF560" s="14"/>
       <c r="AG560" s="14"/>
     </row>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="15"/>
       <c r="B561" s="14"/>
       <c r="C561" s="14"/>
@@ -20732,7 +20803,7 @@
       <c r="AF561" s="14"/>
       <c r="AG561" s="14"/>
     </row>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="15"/>
       <c r="B562" s="14"/>
       <c r="C562" s="14"/>
@@ -20767,7 +20838,7 @@
       <c r="AF562" s="14"/>
       <c r="AG562" s="14"/>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="15"/>
       <c r="B563" s="14"/>
       <c r="C563" s="14"/>
@@ -20802,7 +20873,7 @@
       <c r="AF563" s="14"/>
       <c r="AG563" s="14"/>
     </row>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="15"/>
       <c r="B564" s="14"/>
       <c r="C564" s="14"/>
@@ -20837,7 +20908,7 @@
       <c r="AF564" s="14"/>
       <c r="AG564" s="14"/>
     </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="15"/>
       <c r="B565" s="14"/>
       <c r="C565" s="14"/>
@@ -20872,7 +20943,7 @@
       <c r="AF565" s="14"/>
       <c r="AG565" s="14"/>
     </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="15"/>
       <c r="B566" s="14"/>
       <c r="C566" s="14"/>
@@ -20907,7 +20978,7 @@
       <c r="AF566" s="14"/>
       <c r="AG566" s="14"/>
     </row>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="15"/>
       <c r="B567" s="14"/>
       <c r="C567" s="14"/>
@@ -20942,7 +21013,7 @@
       <c r="AF567" s="14"/>
       <c r="AG567" s="14"/>
     </row>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="15"/>
       <c r="B568" s="14"/>
       <c r="C568" s="14"/>
@@ -20977,7 +21048,7 @@
       <c r="AF568" s="14"/>
       <c r="AG568" s="14"/>
     </row>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="15"/>
       <c r="B569" s="14"/>
       <c r="C569" s="14"/>
@@ -21012,7 +21083,7 @@
       <c r="AF569" s="14"/>
       <c r="AG569" s="14"/>
     </row>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="15"/>
       <c r="B570" s="14"/>
       <c r="C570" s="14"/>
@@ -21047,7 +21118,7 @@
       <c r="AF570" s="14"/>
       <c r="AG570" s="14"/>
     </row>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="15"/>
       <c r="B571" s="14"/>
       <c r="C571" s="14"/>
@@ -21082,7 +21153,7 @@
       <c r="AF571" s="14"/>
       <c r="AG571" s="14"/>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="15"/>
       <c r="B572" s="14"/>
       <c r="C572" s="14"/>
@@ -21117,7 +21188,7 @@
       <c r="AF572" s="14"/>
       <c r="AG572" s="14"/>
     </row>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="15"/>
       <c r="B573" s="14"/>
       <c r="C573" s="14"/>
@@ -21152,7 +21223,7 @@
       <c r="AF573" s="14"/>
       <c r="AG573" s="14"/>
     </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="15"/>
       <c r="B574" s="14"/>
       <c r="C574" s="14"/>
@@ -21187,7 +21258,7 @@
       <c r="AF574" s="14"/>
       <c r="AG574" s="14"/>
     </row>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="15"/>
       <c r="B575" s="14"/>
       <c r="C575" s="14"/>
@@ -21222,7 +21293,7 @@
       <c r="AF575" s="14"/>
       <c r="AG575" s="14"/>
     </row>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="15"/>
       <c r="B576" s="14"/>
       <c r="C576" s="14"/>
@@ -21257,7 +21328,7 @@
       <c r="AF576" s="14"/>
       <c r="AG576" s="14"/>
     </row>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="15"/>
       <c r="B577" s="14"/>
       <c r="C577" s="14"/>
@@ -21292,7 +21363,7 @@
       <c r="AF577" s="14"/>
       <c r="AG577" s="14"/>
     </row>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="15"/>
       <c r="B578" s="14"/>
       <c r="C578" s="14"/>
@@ -21327,7 +21398,7 @@
       <c r="AF578" s="14"/>
       <c r="AG578" s="14"/>
     </row>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="15"/>
       <c r="B579" s="14"/>
       <c r="C579" s="14"/>
@@ -21362,7 +21433,7 @@
       <c r="AF579" s="14"/>
       <c r="AG579" s="14"/>
     </row>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="15"/>
       <c r="B580" s="14"/>
       <c r="C580" s="14"/>
@@ -21397,7 +21468,7 @@
       <c r="AF580" s="14"/>
       <c r="AG580" s="14"/>
     </row>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="15"/>
       <c r="B581" s="14"/>
       <c r="C581" s="14"/>
@@ -21432,7 +21503,7 @@
       <c r="AF581" s="14"/>
       <c r="AG581" s="14"/>
     </row>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="15"/>
       <c r="B582" s="14"/>
       <c r="C582" s="14"/>
@@ -21467,7 +21538,7 @@
       <c r="AF582" s="14"/>
       <c r="AG582" s="14"/>
     </row>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="15"/>
       <c r="B583" s="14"/>
       <c r="C583" s="14"/>
@@ -21502,7 +21573,7 @@
       <c r="AF583" s="14"/>
       <c r="AG583" s="14"/>
     </row>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="15"/>
       <c r="B584" s="14"/>
       <c r="C584" s="14"/>
@@ -21537,7 +21608,7 @@
       <c r="AF584" s="14"/>
       <c r="AG584" s="14"/>
     </row>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="15"/>
       <c r="B585" s="14"/>
       <c r="C585" s="14"/>
@@ -21572,7 +21643,7 @@
       <c r="AF585" s="14"/>
       <c r="AG585" s="14"/>
     </row>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="15"/>
       <c r="B586" s="14"/>
       <c r="C586" s="14"/>
@@ -21607,7 +21678,7 @@
       <c r="AF586" s="14"/>
       <c r="AG586" s="14"/>
     </row>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="15"/>
       <c r="B587" s="14"/>
       <c r="C587" s="14"/>
@@ -21642,7 +21713,7 @@
       <c r="AF587" s="14"/>
       <c r="AG587" s="14"/>
     </row>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="15"/>
       <c r="B588" s="14"/>
       <c r="C588" s="14"/>
@@ -21677,7 +21748,7 @@
       <c r="AF588" s="14"/>
       <c r="AG588" s="14"/>
     </row>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="15"/>
       <c r="B589" s="14"/>
       <c r="C589" s="14"/>
@@ -21712,7 +21783,7 @@
       <c r="AF589" s="14"/>
       <c r="AG589" s="14"/>
     </row>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="15"/>
       <c r="B590" s="14"/>
       <c r="C590" s="14"/>
@@ -21747,7 +21818,7 @@
       <c r="AF590" s="14"/>
       <c r="AG590" s="14"/>
     </row>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="15"/>
       <c r="B591" s="14"/>
       <c r="C591" s="14"/>
@@ -21782,7 +21853,7 @@
       <c r="AF591" s="14"/>
       <c r="AG591" s="14"/>
     </row>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="15"/>
       <c r="B592" s="14"/>
       <c r="C592" s="14"/>
@@ -21817,7 +21888,7 @@
       <c r="AF592" s="14"/>
       <c r="AG592" s="14"/>
     </row>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="15"/>
       <c r="B593" s="14"/>
       <c r="C593" s="14"/>
@@ -21852,7 +21923,7 @@
       <c r="AF593" s="14"/>
       <c r="AG593" s="14"/>
     </row>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="15"/>
       <c r="B594" s="14"/>
       <c r="C594" s="14"/>
@@ -21887,7 +21958,7 @@
       <c r="AF594" s="14"/>
       <c r="AG594" s="14"/>
     </row>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="15"/>
       <c r="B595" s="14"/>
       <c r="C595" s="14"/>
@@ -21922,7 +21993,7 @@
       <c r="AF595" s="14"/>
       <c r="AG595" s="14"/>
     </row>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="15"/>
       <c r="B596" s="14"/>
       <c r="C596" s="14"/>
@@ -21957,7 +22028,7 @@
       <c r="AF596" s="14"/>
       <c r="AG596" s="14"/>
     </row>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="15"/>
       <c r="B597" s="14"/>
       <c r="C597" s="14"/>
@@ -21992,7 +22063,7 @@
       <c r="AF597" s="14"/>
       <c r="AG597" s="14"/>
     </row>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="15"/>
       <c r="B598" s="14"/>
       <c r="C598" s="14"/>
@@ -22027,7 +22098,7 @@
       <c r="AF598" s="14"/>
       <c r="AG598" s="14"/>
     </row>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="15"/>
       <c r="B599" s="14"/>
       <c r="C599" s="14"/>
@@ -22062,7 +22133,7 @@
       <c r="AF599" s="14"/>
       <c r="AG599" s="14"/>
     </row>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="15"/>
       <c r="B600" s="14"/>
       <c r="C600" s="14"/>
@@ -22097,7 +22168,7 @@
       <c r="AF600" s="14"/>
       <c r="AG600" s="14"/>
     </row>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="15"/>
       <c r="B601" s="14"/>
       <c r="C601" s="14"/>
@@ -22132,7 +22203,7 @@
       <c r="AF601" s="14"/>
       <c r="AG601" s="14"/>
     </row>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="15"/>
       <c r="B602" s="14"/>
       <c r="C602" s="14"/>
@@ -22167,7 +22238,7 @@
       <c r="AF602" s="14"/>
       <c r="AG602" s="14"/>
     </row>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="15"/>
       <c r="B603" s="14"/>
       <c r="C603" s="14"/>
@@ -22202,7 +22273,7 @@
       <c r="AF603" s="14"/>
       <c r="AG603" s="14"/>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="15"/>
       <c r="B604" s="14"/>
       <c r="C604" s="14"/>
@@ -22237,7 +22308,7 @@
       <c r="AF604" s="14"/>
       <c r="AG604" s="14"/>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="15"/>
       <c r="B605" s="14"/>
       <c r="C605" s="14"/>
@@ -22272,7 +22343,7 @@
       <c r="AF605" s="14"/>
       <c r="AG605" s="14"/>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="15"/>
       <c r="B606" s="14"/>
       <c r="C606" s="14"/>
@@ -22307,7 +22378,7 @@
       <c r="AF606" s="14"/>
       <c r="AG606" s="14"/>
     </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="15"/>
       <c r="B607" s="14"/>
       <c r="C607" s="14"/>
@@ -22342,7 +22413,7 @@
       <c r="AF607" s="14"/>
       <c r="AG607" s="14"/>
     </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="15"/>
       <c r="B608" s="14"/>
       <c r="C608" s="14"/>
@@ -22377,7 +22448,7 @@
       <c r="AF608" s="14"/>
       <c r="AG608" s="14"/>
     </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="15"/>
       <c r="B609" s="14"/>
       <c r="C609" s="14"/>
@@ -22412,7 +22483,7 @@
       <c r="AF609" s="14"/>
       <c r="AG609" s="14"/>
     </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="15"/>
       <c r="B610" s="14"/>
       <c r="C610" s="14"/>
@@ -22447,7 +22518,7 @@
       <c r="AF610" s="14"/>
       <c r="AG610" s="14"/>
     </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="15"/>
       <c r="B611" s="14"/>
       <c r="C611" s="14"/>
@@ -22482,7 +22553,7 @@
       <c r="AF611" s="14"/>
       <c r="AG611" s="14"/>
     </row>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="15"/>
       <c r="B612" s="14"/>
       <c r="C612" s="14"/>
@@ -22517,7 +22588,7 @@
       <c r="AF612" s="14"/>
       <c r="AG612" s="14"/>
     </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="15"/>
       <c r="B613" s="14"/>
       <c r="C613" s="14"/>
@@ -22552,7 +22623,7 @@
       <c r="AF613" s="14"/>
       <c r="AG613" s="14"/>
     </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="15"/>
       <c r="B614" s="14"/>
       <c r="C614" s="14"/>
@@ -22587,7 +22658,7 @@
       <c r="AF614" s="14"/>
       <c r="AG614" s="14"/>
     </row>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="15"/>
       <c r="B615" s="14"/>
       <c r="C615" s="14"/>
@@ -22622,7 +22693,7 @@
       <c r="AF615" s="14"/>
       <c r="AG615" s="14"/>
     </row>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="15"/>
       <c r="B616" s="14"/>
       <c r="C616" s="14"/>
@@ -22657,7 +22728,7 @@
       <c r="AF616" s="14"/>
       <c r="AG616" s="14"/>
     </row>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="15"/>
       <c r="B617" s="14"/>
       <c r="C617" s="14"/>
@@ -22692,7 +22763,7 @@
       <c r="AF617" s="14"/>
       <c r="AG617" s="14"/>
     </row>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="15"/>
       <c r="B618" s="14"/>
       <c r="C618" s="14"/>
@@ -22727,7 +22798,7 @@
       <c r="AF618" s="14"/>
       <c r="AG618" s="14"/>
     </row>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="15"/>
       <c r="B619" s="14"/>
       <c r="C619" s="14"/>
@@ -22762,7 +22833,7 @@
       <c r="AF619" s="14"/>
       <c r="AG619" s="14"/>
     </row>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="15"/>
       <c r="B620" s="14"/>
       <c r="C620" s="14"/>
@@ -22797,7 +22868,7 @@
       <c r="AF620" s="14"/>
       <c r="AG620" s="14"/>
     </row>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="15"/>
       <c r="B621" s="14"/>
       <c r="C621" s="14"/>
@@ -22832,7 +22903,7 @@
       <c r="AF621" s="14"/>
       <c r="AG621" s="14"/>
     </row>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="15"/>
       <c r="B622" s="14"/>
       <c r="C622" s="14"/>
@@ -22867,7 +22938,7 @@
       <c r="AF622" s="14"/>
       <c r="AG622" s="14"/>
     </row>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="15"/>
       <c r="B623" s="14"/>
       <c r="C623" s="14"/>
@@ -22902,7 +22973,7 @@
       <c r="AF623" s="14"/>
       <c r="AG623" s="14"/>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="15"/>
       <c r="B624" s="14"/>
       <c r="C624" s="14"/>
@@ -22937,7 +23008,7 @@
       <c r="AF624" s="14"/>
       <c r="AG624" s="14"/>
     </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="15"/>
       <c r="B625" s="14"/>
       <c r="C625" s="14"/>
@@ -22972,7 +23043,7 @@
       <c r="AF625" s="14"/>
       <c r="AG625" s="14"/>
     </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="15"/>
       <c r="B626" s="14"/>
       <c r="C626" s="14"/>
@@ -23007,7 +23078,7 @@
       <c r="AF626" s="14"/>
       <c r="AG626" s="14"/>
     </row>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="15"/>
       <c r="B627" s="14"/>
       <c r="C627" s="14"/>
@@ -23042,7 +23113,7 @@
       <c r="AF627" s="14"/>
       <c r="AG627" s="14"/>
     </row>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="15"/>
       <c r="B628" s="14"/>
       <c r="C628" s="14"/>
@@ -23077,7 +23148,7 @@
       <c r="AF628" s="14"/>
       <c r="AG628" s="14"/>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="15"/>
       <c r="B629" s="14"/>
       <c r="C629" s="14"/>
@@ -23112,7 +23183,7 @@
       <c r="AF629" s="14"/>
       <c r="AG629" s="14"/>
     </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="15"/>
       <c r="B630" s="14"/>
       <c r="C630" s="14"/>
@@ -23147,7 +23218,7 @@
       <c r="AF630" s="14"/>
       <c r="AG630" s="14"/>
     </row>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="15"/>
       <c r="B631" s="14"/>
       <c r="C631" s="14"/>
@@ -23182,7 +23253,7 @@
       <c r="AF631" s="14"/>
       <c r="AG631" s="14"/>
     </row>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="15"/>
       <c r="B632" s="14"/>
       <c r="C632" s="14"/>
@@ -23217,7 +23288,7 @@
       <c r="AF632" s="14"/>
       <c r="AG632" s="14"/>
     </row>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="15"/>
       <c r="B633" s="14"/>
       <c r="C633" s="14"/>
@@ -23252,7 +23323,7 @@
       <c r="AF633" s="14"/>
       <c r="AG633" s="14"/>
     </row>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="15"/>
       <c r="B634" s="14"/>
       <c r="C634" s="14"/>
@@ -23287,7 +23358,7 @@
       <c r="AF634" s="14"/>
       <c r="AG634" s="14"/>
     </row>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="15"/>
       <c r="B635" s="14"/>
       <c r="C635" s="14"/>
@@ -23322,7 +23393,7 @@
       <c r="AF635" s="14"/>
       <c r="AG635" s="14"/>
     </row>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="15"/>
       <c r="B636" s="14"/>
       <c r="C636" s="14"/>
@@ -23357,7 +23428,7 @@
       <c r="AF636" s="14"/>
       <c r="AG636" s="14"/>
     </row>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="15"/>
       <c r="B637" s="14"/>
       <c r="C637" s="14"/>
@@ -23392,7 +23463,7 @@
       <c r="AF637" s="14"/>
       <c r="AG637" s="14"/>
     </row>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="15"/>
       <c r="B638" s="14"/>
       <c r="C638" s="14"/>
@@ -23427,7 +23498,7 @@
       <c r="AF638" s="14"/>
       <c r="AG638" s="14"/>
     </row>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="15"/>
       <c r="B639" s="14"/>
       <c r="C639" s="14"/>
@@ -23462,7 +23533,7 @@
       <c r="AF639" s="14"/>
       <c r="AG639" s="14"/>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="15"/>
       <c r="B640" s="14"/>
       <c r="C640" s="14"/>
@@ -23497,7 +23568,7 @@
       <c r="AF640" s="14"/>
       <c r="AG640" s="14"/>
     </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="15"/>
       <c r="B641" s="14"/>
       <c r="C641" s="14"/>
@@ -23532,7 +23603,7 @@
       <c r="AF641" s="14"/>
       <c r="AG641" s="14"/>
     </row>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="15"/>
       <c r="B642" s="14"/>
       <c r="C642" s="14"/>
@@ -23567,7 +23638,7 @@
       <c r="AF642" s="14"/>
       <c r="AG642" s="14"/>
     </row>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="15"/>
       <c r="B643" s="14"/>
       <c r="C643" s="14"/>
@@ -23602,7 +23673,7 @@
       <c r="AF643" s="14"/>
       <c r="AG643" s="14"/>
     </row>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="15"/>
       <c r="B644" s="14"/>
       <c r="C644" s="14"/>
@@ -23637,7 +23708,7 @@
       <c r="AF644" s="14"/>
       <c r="AG644" s="14"/>
     </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="15"/>
       <c r="B645" s="14"/>
       <c r="C645" s="14"/>
@@ -23672,7 +23743,7 @@
       <c r="AF645" s="14"/>
       <c r="AG645" s="14"/>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="15"/>
       <c r="B646" s="14"/>
       <c r="C646" s="14"/>
@@ -23707,7 +23778,7 @@
       <c r="AF646" s="14"/>
       <c r="AG646" s="14"/>
     </row>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="15"/>
       <c r="B647" s="14"/>
       <c r="C647" s="14"/>
@@ -23742,7 +23813,7 @@
       <c r="AF647" s="14"/>
       <c r="AG647" s="14"/>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="15"/>
       <c r="B648" s="14"/>
       <c r="C648" s="14"/>
@@ -23777,7 +23848,7 @@
       <c r="AF648" s="14"/>
       <c r="AG648" s="14"/>
     </row>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="15"/>
       <c r="B649" s="14"/>
       <c r="C649" s="14"/>
@@ -23812,7 +23883,7 @@
       <c r="AF649" s="14"/>
       <c r="AG649" s="14"/>
     </row>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="15"/>
       <c r="B650" s="14"/>
       <c r="C650" s="14"/>
@@ -23847,7 +23918,7 @@
       <c r="AF650" s="14"/>
       <c r="AG650" s="14"/>
     </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="15"/>
       <c r="B651" s="14"/>
       <c r="C651" s="14"/>
@@ -23882,7 +23953,7 @@
       <c r="AF651" s="14"/>
       <c r="AG651" s="14"/>
     </row>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="15"/>
       <c r="B652" s="14"/>
       <c r="C652" s="14"/>
@@ -23917,7 +23988,7 @@
       <c r="AF652" s="14"/>
       <c r="AG652" s="14"/>
     </row>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="15"/>
       <c r="B653" s="14"/>
       <c r="C653" s="14"/>
@@ -23952,7 +24023,7 @@
       <c r="AF653" s="14"/>
       <c r="AG653" s="14"/>
     </row>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="15"/>
       <c r="B654" s="14"/>
       <c r="C654" s="14"/>
@@ -23987,7 +24058,7 @@
       <c r="AF654" s="14"/>
       <c r="AG654" s="14"/>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="15"/>
       <c r="B655" s="14"/>
       <c r="C655" s="14"/>
@@ -24022,7 +24093,7 @@
       <c r="AF655" s="14"/>
       <c r="AG655" s="14"/>
     </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="15"/>
       <c r="B656" s="14"/>
       <c r="C656" s="14"/>
@@ -24057,7 +24128,7 @@
       <c r="AF656" s="14"/>
       <c r="AG656" s="14"/>
     </row>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="15"/>
       <c r="B657" s="14"/>
       <c r="C657" s="14"/>
@@ -24092,7 +24163,7 @@
       <c r="AF657" s="14"/>
       <c r="AG657" s="14"/>
     </row>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="15"/>
       <c r="B658" s="14"/>
       <c r="C658" s="14"/>
@@ -24127,7 +24198,7 @@
       <c r="AF658" s="14"/>
       <c r="AG658" s="14"/>
     </row>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="15"/>
       <c r="B659" s="14"/>
       <c r="C659" s="14"/>
@@ -24162,7 +24233,7 @@
       <c r="AF659" s="14"/>
       <c r="AG659" s="14"/>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="15"/>
       <c r="B660" s="14"/>
       <c r="C660" s="14"/>
@@ -24197,7 +24268,7 @@
       <c r="AF660" s="14"/>
       <c r="AG660" s="14"/>
     </row>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="15"/>
       <c r="B661" s="14"/>
       <c r="C661" s="14"/>
@@ -24232,7 +24303,7 @@
       <c r="AF661" s="14"/>
       <c r="AG661" s="14"/>
     </row>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="15"/>
       <c r="B662" s="14"/>
       <c r="C662" s="14"/>
@@ -24267,7 +24338,7 @@
       <c r="AF662" s="14"/>
       <c r="AG662" s="14"/>
     </row>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="15"/>
       <c r="B663" s="14"/>
       <c r="C663" s="14"/>
@@ -24302,7 +24373,7 @@
       <c r="AF663" s="14"/>
       <c r="AG663" s="14"/>
     </row>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="15"/>
       <c r="B664" s="14"/>
       <c r="C664" s="14"/>
@@ -24337,7 +24408,7 @@
       <c r="AF664" s="14"/>
       <c r="AG664" s="14"/>
     </row>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="15"/>
       <c r="B665" s="14"/>
       <c r="C665" s="14"/>
@@ -24372,7 +24443,7 @@
       <c r="AF665" s="14"/>
       <c r="AG665" s="14"/>
     </row>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="15"/>
       <c r="B666" s="14"/>
       <c r="C666" s="14"/>
@@ -24407,7 +24478,7 @@
       <c r="AF666" s="14"/>
       <c r="AG666" s="14"/>
     </row>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="15"/>
       <c r="B667" s="14"/>
       <c r="C667" s="14"/>
@@ -24442,7 +24513,7 @@
       <c r="AF667" s="14"/>
       <c r="AG667" s="14"/>
     </row>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="15"/>
       <c r="B668" s="14"/>
       <c r="C668" s="14"/>
@@ -24477,7 +24548,7 @@
       <c r="AF668" s="14"/>
       <c r="AG668" s="14"/>
     </row>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="15"/>
       <c r="B669" s="14"/>
       <c r="C669" s="14"/>
@@ -24512,7 +24583,7 @@
       <c r="AF669" s="14"/>
       <c r="AG669" s="14"/>
     </row>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="15"/>
       <c r="B670" s="14"/>
       <c r="C670" s="14"/>
@@ -24547,7 +24618,7 @@
       <c r="AF670" s="14"/>
       <c r="AG670" s="14"/>
     </row>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="15"/>
       <c r="B671" s="14"/>
       <c r="C671" s="14"/>
@@ -24582,7 +24653,7 @@
       <c r="AF671" s="14"/>
       <c r="AG671" s="14"/>
     </row>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="15"/>
       <c r="B672" s="14"/>
       <c r="C672" s="14"/>
@@ -24617,7 +24688,7 @@
       <c r="AF672" s="14"/>
       <c r="AG672" s="14"/>
     </row>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="15"/>
       <c r="B673" s="14"/>
       <c r="C673" s="14"/>
@@ -24652,7 +24723,7 @@
       <c r="AF673" s="14"/>
       <c r="AG673" s="14"/>
     </row>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="15"/>
       <c r="B674" s="14"/>
       <c r="C674" s="14"/>
@@ -24687,7 +24758,7 @@
       <c r="AF674" s="14"/>
       <c r="AG674" s="14"/>
     </row>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="15"/>
       <c r="B675" s="14"/>
       <c r="C675" s="14"/>
@@ -24722,7 +24793,7 @@
       <c r="AF675" s="14"/>
       <c r="AG675" s="14"/>
     </row>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="15"/>
       <c r="B676" s="14"/>
       <c r="C676" s="14"/>
@@ -24757,7 +24828,7 @@
       <c r="AF676" s="14"/>
       <c r="AG676" s="14"/>
     </row>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="15"/>
       <c r="B677" s="14"/>
       <c r="C677" s="14"/>
@@ -24792,7 +24863,7 @@
       <c r="AF677" s="14"/>
       <c r="AG677" s="14"/>
     </row>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="15"/>
       <c r="B678" s="14"/>
       <c r="C678" s="14"/>
@@ -24827,7 +24898,7 @@
       <c r="AF678" s="14"/>
       <c r="AG678" s="14"/>
     </row>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="15"/>
       <c r="B679" s="14"/>
       <c r="C679" s="14"/>
@@ -24862,7 +24933,7 @@
       <c r="AF679" s="14"/>
       <c r="AG679" s="14"/>
     </row>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="15"/>
       <c r="B680" s="14"/>
       <c r="C680" s="14"/>
@@ -24897,7 +24968,7 @@
       <c r="AF680" s="14"/>
       <c r="AG680" s="14"/>
     </row>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="15"/>
       <c r="B681" s="14"/>
       <c r="C681" s="14"/>
@@ -24932,7 +25003,7 @@
       <c r="AF681" s="14"/>
       <c r="AG681" s="14"/>
     </row>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="15"/>
       <c r="B682" s="14"/>
       <c r="C682" s="14"/>
@@ -24967,7 +25038,7 @@
       <c r="AF682" s="14"/>
       <c r="AG682" s="14"/>
     </row>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="15"/>
       <c r="B683" s="14"/>
       <c r="C683" s="14"/>
@@ -25002,7 +25073,7 @@
       <c r="AF683" s="14"/>
       <c r="AG683" s="14"/>
     </row>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="15"/>
       <c r="B684" s="14"/>
       <c r="C684" s="14"/>
@@ -25037,7 +25108,7 @@
       <c r="AF684" s="14"/>
       <c r="AG684" s="14"/>
     </row>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="15"/>
       <c r="B685" s="14"/>
       <c r="C685" s="14"/>
@@ -25072,7 +25143,7 @@
       <c r="AF685" s="14"/>
       <c r="AG685" s="14"/>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="15"/>
       <c r="B686" s="14"/>
       <c r="C686" s="14"/>
@@ -25107,7 +25178,7 @@
       <c r="AF686" s="14"/>
       <c r="AG686" s="14"/>
     </row>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="15"/>
       <c r="B687" s="14"/>
       <c r="C687" s="14"/>
@@ -25142,7 +25213,7 @@
       <c r="AF687" s="14"/>
       <c r="AG687" s="14"/>
     </row>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="15"/>
       <c r="B688" s="14"/>
       <c r="C688" s="14"/>
@@ -25177,7 +25248,7 @@
       <c r="AF688" s="14"/>
       <c r="AG688" s="14"/>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="15"/>
       <c r="B689" s="14"/>
       <c r="C689" s="14"/>
@@ -25212,7 +25283,7 @@
       <c r="AF689" s="14"/>
       <c r="AG689" s="14"/>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="15"/>
       <c r="B690" s="14"/>
       <c r="C690" s="14"/>
@@ -25247,7 +25318,7 @@
       <c r="AF690" s="14"/>
       <c r="AG690" s="14"/>
     </row>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="15"/>
       <c r="B691" s="14"/>
       <c r="C691" s="14"/>
@@ -25282,7 +25353,7 @@
       <c r="AF691" s="14"/>
       <c r="AG691" s="14"/>
     </row>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="15"/>
       <c r="B692" s="14"/>
       <c r="C692" s="14"/>
@@ -25317,7 +25388,7 @@
       <c r="AF692" s="14"/>
       <c r="AG692" s="14"/>
     </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="15"/>
       <c r="B693" s="14"/>
       <c r="C693" s="14"/>
@@ -25352,7 +25423,7 @@
       <c r="AF693" s="14"/>
       <c r="AG693" s="14"/>
     </row>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="15"/>
       <c r="B694" s="14"/>
       <c r="C694" s="14"/>
@@ -25387,7 +25458,7 @@
       <c r="AF694" s="14"/>
       <c r="AG694" s="14"/>
     </row>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="15"/>
       <c r="B695" s="14"/>
       <c r="C695" s="14"/>
@@ -25422,7 +25493,7 @@
       <c r="AF695" s="14"/>
       <c r="AG695" s="14"/>
     </row>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="15"/>
       <c r="B696" s="14"/>
       <c r="C696" s="14"/>
@@ -25457,7 +25528,7 @@
       <c r="AF696" s="14"/>
       <c r="AG696" s="14"/>
     </row>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="15"/>
       <c r="B697" s="14"/>
       <c r="C697" s="14"/>
@@ -25492,7 +25563,7 @@
       <c r="AF697" s="14"/>
       <c r="AG697" s="14"/>
     </row>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="15"/>
       <c r="B698" s="14"/>
       <c r="C698" s="14"/>
@@ -25527,7 +25598,7 @@
       <c r="AF698" s="14"/>
       <c r="AG698" s="14"/>
     </row>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="15"/>
       <c r="B699" s="14"/>
       <c r="C699" s="14"/>
@@ -25562,7 +25633,7 @@
       <c r="AF699" s="14"/>
       <c r="AG699" s="14"/>
     </row>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="15"/>
       <c r="B700" s="14"/>
       <c r="C700" s="14"/>
@@ -25597,7 +25668,7 @@
       <c r="AF700" s="14"/>
       <c r="AG700" s="14"/>
     </row>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="15"/>
       <c r="B701" s="14"/>
       <c r="C701" s="14"/>
@@ -25632,7 +25703,7 @@
       <c r="AF701" s="14"/>
       <c r="AG701" s="14"/>
     </row>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="15"/>
       <c r="B702" s="14"/>
       <c r="C702" s="14"/>
@@ -25667,7 +25738,7 @@
       <c r="AF702" s="14"/>
       <c r="AG702" s="14"/>
     </row>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="15"/>
       <c r="B703" s="14"/>
       <c r="C703" s="14"/>
@@ -25702,7 +25773,7 @@
       <c r="AF703" s="14"/>
       <c r="AG703" s="14"/>
     </row>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="15"/>
       <c r="B704" s="14"/>
       <c r="C704" s="14"/>
@@ -25737,7 +25808,7 @@
       <c r="AF704" s="14"/>
       <c r="AG704" s="14"/>
     </row>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="15"/>
       <c r="B705" s="14"/>
       <c r="C705" s="14"/>
@@ -25772,7 +25843,7 @@
       <c r="AF705" s="14"/>
       <c r="AG705" s="14"/>
     </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="15"/>
       <c r="B706" s="14"/>
       <c r="C706" s="14"/>
@@ -25807,7 +25878,7 @@
       <c r="AF706" s="14"/>
       <c r="AG706" s="14"/>
     </row>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="15"/>
       <c r="B707" s="14"/>
       <c r="C707" s="14"/>
@@ -25842,7 +25913,7 @@
       <c r="AF707" s="14"/>
       <c r="AG707" s="14"/>
     </row>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="15"/>
       <c r="B708" s="14"/>
       <c r="C708" s="14"/>
@@ -25877,7 +25948,7 @@
       <c r="AF708" s="14"/>
       <c r="AG708" s="14"/>
     </row>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="15"/>
       <c r="B709" s="14"/>
       <c r="C709" s="14"/>
@@ -25912,7 +25983,7 @@
       <c r="AF709" s="14"/>
       <c r="AG709" s="14"/>
     </row>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="15"/>
       <c r="B710" s="14"/>
       <c r="C710" s="14"/>
@@ -25947,7 +26018,7 @@
       <c r="AF710" s="14"/>
       <c r="AG710" s="14"/>
     </row>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="15"/>
       <c r="B711" s="14"/>
       <c r="C711" s="14"/>
@@ -25982,7 +26053,7 @@
       <c r="AF711" s="14"/>
       <c r="AG711" s="14"/>
     </row>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="15"/>
       <c r="B712" s="14"/>
       <c r="C712" s="14"/>
@@ -26017,7 +26088,7 @@
       <c r="AF712" s="14"/>
       <c r="AG712" s="14"/>
     </row>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="15"/>
       <c r="B713" s="14"/>
       <c r="C713" s="14"/>
@@ -26052,7 +26123,7 @@
       <c r="AF713" s="14"/>
       <c r="AG713" s="14"/>
     </row>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="15"/>
       <c r="B714" s="14"/>
       <c r="C714" s="14"/>
@@ -26087,7 +26158,7 @@
       <c r="AF714" s="14"/>
       <c r="AG714" s="14"/>
     </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="15"/>
       <c r="B715" s="14"/>
       <c r="C715" s="14"/>
@@ -26122,7 +26193,7 @@
       <c r="AF715" s="14"/>
       <c r="AG715" s="14"/>
     </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="15"/>
       <c r="B716" s="14"/>
       <c r="C716" s="14"/>
@@ -26157,7 +26228,7 @@
       <c r="AF716" s="14"/>
       <c r="AG716" s="14"/>
     </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="15"/>
       <c r="B717" s="14"/>
       <c r="C717" s="14"/>
@@ -26192,7 +26263,7 @@
       <c r="AF717" s="14"/>
       <c r="AG717" s="14"/>
     </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="15"/>
       <c r="B718" s="14"/>
       <c r="C718" s="14"/>
@@ -26227,7 +26298,7 @@
       <c r="AF718" s="14"/>
       <c r="AG718" s="14"/>
     </row>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="15"/>
       <c r="B719" s="14"/>
       <c r="C719" s="14"/>
@@ -26262,7 +26333,7 @@
       <c r="AF719" s="14"/>
       <c r="AG719" s="14"/>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="15"/>
       <c r="B720" s="14"/>
       <c r="C720" s="14"/>
@@ -26297,7 +26368,7 @@
       <c r="AF720" s="14"/>
       <c r="AG720" s="14"/>
     </row>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="15"/>
       <c r="B721" s="14"/>
       <c r="C721" s="14"/>
@@ -26332,7 +26403,7 @@
       <c r="AF721" s="14"/>
       <c r="AG721" s="14"/>
     </row>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="15"/>
       <c r="B722" s="14"/>
       <c r="C722" s="14"/>
@@ -26367,7 +26438,7 @@
       <c r="AF722" s="14"/>
       <c r="AG722" s="14"/>
     </row>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="15"/>
       <c r="B723" s="14"/>
       <c r="C723" s="14"/>
@@ -26402,7 +26473,7 @@
       <c r="AF723" s="14"/>
       <c r="AG723" s="14"/>
     </row>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="15"/>
       <c r="B724" s="14"/>
       <c r="C724" s="14"/>
@@ -26437,7 +26508,7 @@
       <c r="AF724" s="14"/>
       <c r="AG724" s="14"/>
     </row>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="15"/>
       <c r="B725" s="14"/>
       <c r="C725" s="14"/>
@@ -26472,7 +26543,7 @@
       <c r="AF725" s="14"/>
       <c r="AG725" s="14"/>
     </row>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="15"/>
       <c r="B726" s="14"/>
       <c r="C726" s="14"/>
@@ -26507,7 +26578,7 @@
       <c r="AF726" s="14"/>
       <c r="AG726" s="14"/>
     </row>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="15"/>
       <c r="B727" s="14"/>
       <c r="C727" s="14"/>
@@ -26542,7 +26613,7 @@
       <c r="AF727" s="14"/>
       <c r="AG727" s="14"/>
     </row>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="15"/>
       <c r="B728" s="14"/>
       <c r="C728" s="14"/>
@@ -26577,7 +26648,7 @@
       <c r="AF728" s="14"/>
       <c r="AG728" s="14"/>
     </row>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="15"/>
       <c r="B729" s="14"/>
       <c r="C729" s="14"/>
@@ -26612,7 +26683,7 @@
       <c r="AF729" s="14"/>
       <c r="AG729" s="14"/>
     </row>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="15"/>
       <c r="B730" s="14"/>
       <c r="C730" s="14"/>
@@ -26647,7 +26718,7 @@
       <c r="AF730" s="14"/>
       <c r="AG730" s="14"/>
     </row>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="15"/>
       <c r="B731" s="14"/>
       <c r="C731" s="14"/>
@@ -26682,7 +26753,7 @@
       <c r="AF731" s="14"/>
       <c r="AG731" s="14"/>
     </row>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="15"/>
       <c r="B732" s="14"/>
       <c r="C732" s="14"/>
@@ -26717,7 +26788,7 @@
       <c r="AF732" s="14"/>
       <c r="AG732" s="14"/>
     </row>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="15"/>
       <c r="B733" s="14"/>
       <c r="C733" s="14"/>
@@ -26752,7 +26823,7 @@
       <c r="AF733" s="14"/>
       <c r="AG733" s="14"/>
     </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="15"/>
       <c r="B734" s="14"/>
       <c r="C734" s="14"/>
@@ -26787,7 +26858,7 @@
       <c r="AF734" s="14"/>
       <c r="AG734" s="14"/>
     </row>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="15"/>
       <c r="B735" s="14"/>
       <c r="C735" s="14"/>
@@ -26822,7 +26893,7 @@
       <c r="AF735" s="14"/>
       <c r="AG735" s="14"/>
     </row>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="15"/>
       <c r="B736" s="14"/>
       <c r="C736" s="14"/>
@@ -26857,7 +26928,7 @@
       <c r="AF736" s="14"/>
       <c r="AG736" s="14"/>
     </row>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="15"/>
       <c r="B737" s="14"/>
       <c r="C737" s="14"/>
@@ -26892,7 +26963,7 @@
       <c r="AF737" s="14"/>
       <c r="AG737" s="14"/>
     </row>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="15"/>
       <c r="B738" s="14"/>
       <c r="C738" s="14"/>
@@ -26927,7 +26998,7 @@
       <c r="AF738" s="14"/>
       <c r="AG738" s="14"/>
     </row>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="15"/>
       <c r="B739" s="14"/>
       <c r="C739" s="14"/>
@@ -26962,7 +27033,7 @@
       <c r="AF739" s="14"/>
       <c r="AG739" s="14"/>
     </row>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="15"/>
       <c r="B740" s="14"/>
       <c r="C740" s="14"/>
@@ -26997,7 +27068,7 @@
       <c r="AF740" s="14"/>
       <c r="AG740" s="14"/>
     </row>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="15"/>
       <c r="B741" s="14"/>
       <c r="C741" s="14"/>
@@ -27032,7 +27103,7 @@
       <c r="AF741" s="14"/>
       <c r="AG741" s="14"/>
     </row>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="15"/>
       <c r="B742" s="14"/>
       <c r="C742" s="14"/>
@@ -27067,7 +27138,7 @@
       <c r="AF742" s="14"/>
       <c r="AG742" s="14"/>
     </row>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="15"/>
       <c r="B743" s="14"/>
       <c r="C743" s="14"/>
@@ -27102,7 +27173,7 @@
       <c r="AF743" s="14"/>
       <c r="AG743" s="14"/>
     </row>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="15"/>
       <c r="B744" s="14"/>
       <c r="C744" s="14"/>
@@ -27137,7 +27208,7 @@
       <c r="AF744" s="14"/>
       <c r="AG744" s="14"/>
     </row>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="15"/>
       <c r="B745" s="14"/>
       <c r="C745" s="14"/>
@@ -27172,7 +27243,7 @@
       <c r="AF745" s="14"/>
       <c r="AG745" s="14"/>
     </row>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="15"/>
       <c r="B746" s="14"/>
       <c r="C746" s="14"/>
@@ -27207,7 +27278,7 @@
       <c r="AF746" s="14"/>
       <c r="AG746" s="14"/>
     </row>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="15"/>
       <c r="B747" s="14"/>
       <c r="C747" s="14"/>
@@ -27242,7 +27313,7 @@
       <c r="AF747" s="14"/>
       <c r="AG747" s="14"/>
     </row>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="15"/>
       <c r="B748" s="14"/>
       <c r="C748" s="14"/>
@@ -27277,7 +27348,7 @@
       <c r="AF748" s="14"/>
       <c r="AG748" s="14"/>
     </row>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="15"/>
       <c r="B749" s="14"/>
       <c r="C749" s="14"/>
@@ -27312,7 +27383,7 @@
       <c r="AF749" s="14"/>
       <c r="AG749" s="14"/>
     </row>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="15"/>
       <c r="B750" s="14"/>
       <c r="C750" s="14"/>
@@ -27347,7 +27418,7 @@
       <c r="AF750" s="14"/>
       <c r="AG750" s="14"/>
     </row>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="15"/>
       <c r="B751" s="14"/>
       <c r="C751" s="14"/>
@@ -27382,7 +27453,7 @@
       <c r="AF751" s="14"/>
       <c r="AG751" s="14"/>
     </row>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="15"/>
       <c r="B752" s="14"/>
       <c r="C752" s="14"/>
@@ -27417,7 +27488,7 @@
       <c r="AF752" s="14"/>
       <c r="AG752" s="14"/>
     </row>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="15"/>
       <c r="B753" s="14"/>
       <c r="C753" s="14"/>
@@ -27452,7 +27523,7 @@
       <c r="AF753" s="14"/>
       <c r="AG753" s="14"/>
     </row>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="15"/>
       <c r="B754" s="14"/>
       <c r="C754" s="14"/>
@@ -27487,7 +27558,7 @@
       <c r="AF754" s="14"/>
       <c r="AG754" s="14"/>
     </row>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="15"/>
       <c r="B755" s="14"/>
       <c r="C755" s="14"/>
@@ -27522,7 +27593,7 @@
       <c r="AF755" s="14"/>
       <c r="AG755" s="14"/>
     </row>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="15"/>
       <c r="B756" s="14"/>
       <c r="C756" s="14"/>
@@ -27557,7 +27628,7 @@
       <c r="AF756" s="14"/>
       <c r="AG756" s="14"/>
     </row>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="15"/>
       <c r="B757" s="14"/>
       <c r="C757" s="14"/>
@@ -27592,7 +27663,7 @@
       <c r="AF757" s="14"/>
       <c r="AG757" s="14"/>
     </row>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="15"/>
       <c r="B758" s="14"/>
       <c r="C758" s="14"/>
@@ -27627,7 +27698,7 @@
       <c r="AF758" s="14"/>
       <c r="AG758" s="14"/>
     </row>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="15"/>
       <c r="B759" s="14"/>
       <c r="C759" s="14"/>
@@ -27662,7 +27733,7 @@
       <c r="AF759" s="14"/>
       <c r="AG759" s="14"/>
     </row>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="15"/>
       <c r="B760" s="14"/>
       <c r="C760" s="14"/>
@@ -27697,7 +27768,7 @@
       <c r="AF760" s="14"/>
       <c r="AG760" s="14"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="15"/>
       <c r="B761" s="14"/>
       <c r="C761" s="14"/>
@@ -27732,7 +27803,7 @@
       <c r="AF761" s="14"/>
       <c r="AG761" s="14"/>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="15"/>
       <c r="B762" s="14"/>
       <c r="C762" s="14"/>
@@ -27767,7 +27838,7 @@
       <c r="AF762" s="14"/>
       <c r="AG762" s="14"/>
     </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="15"/>
       <c r="B763" s="14"/>
       <c r="C763" s="14"/>
@@ -27802,7 +27873,7 @@
       <c r="AF763" s="14"/>
       <c r="AG763" s="14"/>
     </row>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="15"/>
       <c r="B764" s="14"/>
       <c r="C764" s="14"/>
@@ -27837,7 +27908,7 @@
       <c r="AF764" s="14"/>
       <c r="AG764" s="14"/>
     </row>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="15"/>
       <c r="B765" s="14"/>
       <c r="C765" s="14"/>
@@ -27872,7 +27943,7 @@
       <c r="AF765" s="14"/>
       <c r="AG765" s="14"/>
     </row>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="15"/>
       <c r="B766" s="14"/>
       <c r="C766" s="14"/>
@@ -27907,7 +27978,7 @@
       <c r="AF766" s="14"/>
       <c r="AG766" s="14"/>
     </row>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="15"/>
       <c r="B767" s="14"/>
       <c r="C767" s="14"/>
@@ -27942,7 +28013,7 @@
       <c r="AF767" s="14"/>
       <c r="AG767" s="14"/>
     </row>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="15"/>
       <c r="B768" s="14"/>
       <c r="C768" s="14"/>
@@ -27977,7 +28048,7 @@
       <c r="AF768" s="14"/>
       <c r="AG768" s="14"/>
     </row>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="15"/>
       <c r="B769" s="14"/>
       <c r="C769" s="14"/>
@@ -28012,7 +28083,7 @@
       <c r="AF769" s="14"/>
       <c r="AG769" s="14"/>
     </row>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="15"/>
       <c r="B770" s="14"/>
       <c r="C770" s="14"/>
@@ -28047,7 +28118,7 @@
       <c r="AF770" s="14"/>
       <c r="AG770" s="14"/>
     </row>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="15"/>
       <c r="B771" s="14"/>
       <c r="C771" s="14"/>
@@ -28082,7 +28153,7 @@
       <c r="AF771" s="14"/>
       <c r="AG771" s="14"/>
     </row>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="15"/>
       <c r="B772" s="14"/>
       <c r="C772" s="14"/>
@@ -28117,7 +28188,7 @@
       <c r="AF772" s="14"/>
       <c r="AG772" s="14"/>
     </row>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="15"/>
       <c r="B773" s="14"/>
       <c r="C773" s="14"/>
@@ -28152,7 +28223,7 @@
       <c r="AF773" s="14"/>
       <c r="AG773" s="14"/>
     </row>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="15"/>
       <c r="B774" s="14"/>
       <c r="C774" s="14"/>
@@ -28187,7 +28258,7 @@
       <c r="AF774" s="14"/>
       <c r="AG774" s="14"/>
     </row>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="15"/>
       <c r="B775" s="14"/>
       <c r="C775" s="14"/>
@@ -28222,7 +28293,7 @@
       <c r="AF775" s="14"/>
       <c r="AG775" s="14"/>
     </row>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="15"/>
       <c r="B776" s="14"/>
       <c r="C776" s="14"/>
@@ -28257,7 +28328,7 @@
       <c r="AF776" s="14"/>
       <c r="AG776" s="14"/>
     </row>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="15"/>
       <c r="B777" s="14"/>
       <c r="C777" s="14"/>
@@ -28292,7 +28363,7 @@
       <c r="AF777" s="14"/>
       <c r="AG777" s="14"/>
     </row>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="15"/>
       <c r="B778" s="14"/>
       <c r="C778" s="14"/>
@@ -28327,7 +28398,7 @@
       <c r="AF778" s="14"/>
       <c r="AG778" s="14"/>
     </row>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="15"/>
       <c r="B779" s="14"/>
       <c r="C779" s="14"/>
@@ -28362,7 +28433,7 @@
       <c r="AF779" s="14"/>
       <c r="AG779" s="14"/>
     </row>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="15"/>
       <c r="B780" s="14"/>
       <c r="C780" s="14"/>
@@ -28397,7 +28468,7 @@
       <c r="AF780" s="14"/>
       <c r="AG780" s="14"/>
     </row>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="15"/>
       <c r="B781" s="14"/>
       <c r="C781" s="14"/>
@@ -28432,7 +28503,7 @@
       <c r="AF781" s="14"/>
       <c r="AG781" s="14"/>
     </row>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="15"/>
       <c r="B782" s="14"/>
       <c r="C782" s="14"/>
@@ -28467,7 +28538,7 @@
       <c r="AF782" s="14"/>
       <c r="AG782" s="14"/>
     </row>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="15"/>
       <c r="B783" s="14"/>
       <c r="C783" s="14"/>
@@ -28502,7 +28573,7 @@
       <c r="AF783" s="14"/>
       <c r="AG783" s="14"/>
     </row>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="15"/>
       <c r="B784" s="14"/>
       <c r="C784" s="14"/>
@@ -28537,7 +28608,7 @@
       <c r="AF784" s="14"/>
       <c r="AG784" s="14"/>
     </row>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="15"/>
       <c r="B785" s="14"/>
       <c r="C785" s="14"/>
@@ -28572,7 +28643,7 @@
       <c r="AF785" s="14"/>
       <c r="AG785" s="14"/>
     </row>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="15"/>
       <c r="B786" s="14"/>
       <c r="C786" s="14"/>
@@ -28607,7 +28678,7 @@
       <c r="AF786" s="14"/>
       <c r="AG786" s="14"/>
     </row>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="15"/>
       <c r="B787" s="14"/>
       <c r="C787" s="14"/>
@@ -28642,7 +28713,7 @@
       <c r="AF787" s="14"/>
       <c r="AG787" s="14"/>
     </row>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="15"/>
       <c r="B788" s="14"/>
       <c r="C788" s="14"/>
@@ -28677,7 +28748,7 @@
       <c r="AF788" s="14"/>
       <c r="AG788" s="14"/>
     </row>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="15"/>
       <c r="B789" s="14"/>
       <c r="C789" s="14"/>
@@ -28712,7 +28783,7 @@
       <c r="AF789" s="14"/>
       <c r="AG789" s="14"/>
     </row>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="15"/>
       <c r="B790" s="14"/>
       <c r="C790" s="14"/>
@@ -28747,7 +28818,7 @@
       <c r="AF790" s="14"/>
       <c r="AG790" s="14"/>
     </row>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="15"/>
       <c r="B791" s="14"/>
       <c r="C791" s="14"/>
@@ -28782,7 +28853,7 @@
       <c r="AF791" s="14"/>
       <c r="AG791" s="14"/>
     </row>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="15"/>
       <c r="B792" s="14"/>
       <c r="C792" s="14"/>
@@ -28817,7 +28888,7 @@
       <c r="AF792" s="14"/>
       <c r="AG792" s="14"/>
     </row>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="15"/>
       <c r="B793" s="14"/>
       <c r="C793" s="14"/>
@@ -28852,7 +28923,7 @@
       <c r="AF793" s="14"/>
       <c r="AG793" s="14"/>
     </row>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="15"/>
       <c r="B794" s="14"/>
       <c r="C794" s="14"/>
@@ -28887,7 +28958,7 @@
       <c r="AF794" s="14"/>
       <c r="AG794" s="14"/>
     </row>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="15"/>
       <c r="B795" s="14"/>
       <c r="C795" s="14"/>
@@ -28922,7 +28993,7 @@
       <c r="AF795" s="14"/>
       <c r="AG795" s="14"/>
     </row>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="15"/>
       <c r="B796" s="14"/>
       <c r="C796" s="14"/>
@@ -28957,7 +29028,7 @@
       <c r="AF796" s="14"/>
       <c r="AG796" s="14"/>
     </row>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="15"/>
       <c r="B797" s="14"/>
       <c r="C797" s="14"/>
@@ -28992,7 +29063,7 @@
       <c r="AF797" s="14"/>
       <c r="AG797" s="14"/>
     </row>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="15"/>
       <c r="B798" s="14"/>
       <c r="C798" s="14"/>
@@ -29027,7 +29098,7 @@
       <c r="AF798" s="14"/>
       <c r="AG798" s="14"/>
     </row>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="15"/>
       <c r="B799" s="14"/>
       <c r="C799" s="14"/>
@@ -29062,7 +29133,7 @@
       <c r="AF799" s="14"/>
       <c r="AG799" s="14"/>
     </row>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="15"/>
       <c r="B800" s="14"/>
       <c r="C800" s="14"/>
@@ -29097,7 +29168,7 @@
       <c r="AF800" s="14"/>
       <c r="AG800" s="14"/>
     </row>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="15"/>
       <c r="B801" s="14"/>
       <c r="C801" s="14"/>
@@ -29132,7 +29203,7 @@
       <c r="AF801" s="14"/>
       <c r="AG801" s="14"/>
     </row>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="15"/>
       <c r="B802" s="14"/>
       <c r="C802" s="14"/>
@@ -29167,7 +29238,7 @@
       <c r="AF802" s="14"/>
       <c r="AG802" s="14"/>
     </row>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="15"/>
       <c r="B803" s="14"/>
       <c r="C803" s="14"/>
@@ -29202,7 +29273,7 @@
       <c r="AF803" s="14"/>
       <c r="AG803" s="14"/>
     </row>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="15"/>
       <c r="B804" s="14"/>
       <c r="C804" s="14"/>
@@ -29237,7 +29308,7 @@
       <c r="AF804" s="14"/>
       <c r="AG804" s="14"/>
     </row>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="15"/>
       <c r="B805" s="14"/>
       <c r="C805" s="14"/>
@@ -29272,7 +29343,7 @@
       <c r="AF805" s="14"/>
       <c r="AG805" s="14"/>
     </row>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="15"/>
       <c r="B806" s="14"/>
       <c r="C806" s="14"/>
@@ -29307,7 +29378,7 @@
       <c r="AF806" s="14"/>
       <c r="AG806" s="14"/>
     </row>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="15"/>
       <c r="B807" s="14"/>
       <c r="C807" s="14"/>
@@ -29342,7 +29413,7 @@
       <c r="AF807" s="14"/>
       <c r="AG807" s="14"/>
     </row>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="15"/>
       <c r="B808" s="14"/>
       <c r="C808" s="14"/>
@@ -29377,7 +29448,7 @@
       <c r="AF808" s="14"/>
       <c r="AG808" s="14"/>
     </row>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="15"/>
       <c r="B809" s="14"/>
       <c r="C809" s="14"/>
@@ -29412,7 +29483,7 @@
       <c r="AF809" s="14"/>
       <c r="AG809" s="14"/>
     </row>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="15"/>
       <c r="B810" s="14"/>
       <c r="C810" s="14"/>
@@ -29447,7 +29518,7 @@
       <c r="AF810" s="14"/>
       <c r="AG810" s="14"/>
     </row>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="15"/>
       <c r="B811" s="14"/>
       <c r="C811" s="14"/>
@@ -29482,7 +29553,7 @@
       <c r="AF811" s="14"/>
       <c r="AG811" s="14"/>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="15"/>
       <c r="B812" s="14"/>
       <c r="C812" s="14"/>
@@ -29517,7 +29588,7 @@
       <c r="AF812" s="14"/>
       <c r="AG812" s="14"/>
     </row>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="15"/>
       <c r="B813" s="14"/>
       <c r="C813" s="14"/>
@@ -29552,7 +29623,7 @@
       <c r="AF813" s="14"/>
       <c r="AG813" s="14"/>
     </row>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="15"/>
       <c r="B814" s="14"/>
       <c r="C814" s="14"/>
@@ -29587,7 +29658,7 @@
       <c r="AF814" s="14"/>
       <c r="AG814" s="14"/>
     </row>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="15"/>
       <c r="B815" s="14"/>
       <c r="C815" s="14"/>
@@ -29622,7 +29693,7 @@
       <c r="AF815" s="14"/>
       <c r="AG815" s="14"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="15"/>
       <c r="B816" s="14"/>
       <c r="C816" s="14"/>
@@ -29657,7 +29728,7 @@
       <c r="AF816" s="14"/>
       <c r="AG816" s="14"/>
     </row>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="15"/>
       <c r="B817" s="14"/>
       <c r="C817" s="14"/>
@@ -29692,7 +29763,7 @@
       <c r="AF817" s="14"/>
       <c r="AG817" s="14"/>
     </row>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="15"/>
       <c r="B818" s="14"/>
       <c r="C818" s="14"/>
@@ -29727,7 +29798,7 @@
       <c r="AF818" s="14"/>
       <c r="AG818" s="14"/>
     </row>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="15"/>
       <c r="B819" s="14"/>
       <c r="C819" s="14"/>
@@ -29762,7 +29833,7 @@
       <c r="AF819" s="14"/>
       <c r="AG819" s="14"/>
     </row>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="15"/>
       <c r="B820" s="14"/>
       <c r="C820" s="14"/>
@@ -29797,7 +29868,7 @@
       <c r="AF820" s="14"/>
       <c r="AG820" s="14"/>
     </row>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="15"/>
       <c r="B821" s="14"/>
       <c r="C821" s="14"/>
@@ -29832,7 +29903,7 @@
       <c r="AF821" s="14"/>
       <c r="AG821" s="14"/>
     </row>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="15"/>
       <c r="B822" s="14"/>
       <c r="C822" s="14"/>
@@ -29867,7 +29938,7 @@
       <c r="AF822" s="14"/>
       <c r="AG822" s="14"/>
     </row>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="15"/>
       <c r="B823" s="14"/>
       <c r="C823" s="14"/>
@@ -29902,7 +29973,7 @@
       <c r="AF823" s="14"/>
       <c r="AG823" s="14"/>
     </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="15"/>
       <c r="B824" s="14"/>
       <c r="C824" s="14"/>
@@ -29937,7 +30008,7 @@
       <c r="AF824" s="14"/>
       <c r="AG824" s="14"/>
     </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="15"/>
       <c r="B825" s="14"/>
       <c r="C825" s="14"/>
@@ -29972,7 +30043,7 @@
       <c r="AF825" s="14"/>
       <c r="AG825" s="14"/>
     </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="15"/>
       <c r="B826" s="14"/>
       <c r="C826" s="14"/>
@@ -30007,7 +30078,7 @@
       <c r="AF826" s="14"/>
       <c r="AG826" s="14"/>
     </row>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="15"/>
       <c r="B827" s="14"/>
       <c r="C827" s="14"/>
@@ -30042,7 +30113,7 @@
       <c r="AF827" s="14"/>
       <c r="AG827" s="14"/>
     </row>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="15"/>
       <c r="B828" s="14"/>
       <c r="C828" s="14"/>
@@ -30077,7 +30148,7 @@
       <c r="AF828" s="14"/>
       <c r="AG828" s="14"/>
     </row>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="15"/>
       <c r="B829" s="14"/>
       <c r="C829" s="14"/>
@@ -30112,7 +30183,7 @@
       <c r="AF829" s="14"/>
       <c r="AG829" s="14"/>
     </row>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="15"/>
       <c r="B830" s="14"/>
       <c r="C830" s="14"/>
@@ -30147,7 +30218,7 @@
       <c r="AF830" s="14"/>
       <c r="AG830" s="14"/>
     </row>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="15"/>
       <c r="B831" s="14"/>
       <c r="C831" s="14"/>
@@ -30182,7 +30253,7 @@
       <c r="AF831" s="14"/>
       <c r="AG831" s="14"/>
     </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="15"/>
       <c r="B832" s="14"/>
       <c r="C832" s="14"/>
@@ -30217,7 +30288,7 @@
       <c r="AF832" s="14"/>
       <c r="AG832" s="14"/>
     </row>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="15"/>
       <c r="B833" s="14"/>
       <c r="C833" s="14"/>
@@ -30252,7 +30323,7 @@
       <c r="AF833" s="14"/>
       <c r="AG833" s="14"/>
     </row>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="15"/>
       <c r="B834" s="14"/>
       <c r="C834" s="14"/>
@@ -30287,7 +30358,7 @@
       <c r="AF834" s="14"/>
       <c r="AG834" s="14"/>
     </row>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="15"/>
       <c r="B835" s="14"/>
       <c r="C835" s="14"/>
@@ -30322,7 +30393,7 @@
       <c r="AF835" s="14"/>
       <c r="AG835" s="14"/>
     </row>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="15"/>
       <c r="B836" s="14"/>
       <c r="C836" s="14"/>
@@ -30357,7 +30428,7 @@
       <c r="AF836" s="14"/>
       <c r="AG836" s="14"/>
     </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="15"/>
       <c r="B837" s="14"/>
       <c r="C837" s="14"/>
@@ -30392,7 +30463,7 @@
       <c r="AF837" s="14"/>
       <c r="AG837" s="14"/>
     </row>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="15"/>
       <c r="B838" s="14"/>
       <c r="C838" s="14"/>
@@ -30427,7 +30498,7 @@
       <c r="AF838" s="14"/>
       <c r="AG838" s="14"/>
     </row>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="15"/>
       <c r="B839" s="14"/>
       <c r="C839" s="14"/>
@@ -30462,7 +30533,7 @@
       <c r="AF839" s="14"/>
       <c r="AG839" s="14"/>
     </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="15"/>
       <c r="B840" s="14"/>
       <c r="C840" s="14"/>
@@ -30497,7 +30568,7 @@
       <c r="AF840" s="14"/>
       <c r="AG840" s="14"/>
     </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="15"/>
       <c r="B841" s="14"/>
       <c r="C841" s="14"/>
@@ -30532,7 +30603,7 @@
       <c r="AF841" s="14"/>
       <c r="AG841" s="14"/>
     </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="15"/>
       <c r="B842" s="14"/>
       <c r="C842" s="14"/>
@@ -30567,7 +30638,7 @@
       <c r="AF842" s="14"/>
       <c r="AG842" s="14"/>
     </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="15"/>
       <c r="B843" s="14"/>
       <c r="C843" s="14"/>
@@ -30602,7 +30673,7 @@
       <c r="AF843" s="14"/>
       <c r="AG843" s="14"/>
     </row>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="15"/>
       <c r="B844" s="14"/>
       <c r="C844" s="14"/>
@@ -30637,7 +30708,7 @@
       <c r="AF844" s="14"/>
       <c r="AG844" s="14"/>
     </row>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="15"/>
       <c r="B845" s="14"/>
       <c r="C845" s="14"/>
@@ -30672,7 +30743,7 @@
       <c r="AF845" s="14"/>
       <c r="AG845" s="14"/>
     </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="15"/>
       <c r="B846" s="14"/>
       <c r="C846" s="14"/>
@@ -30707,7 +30778,7 @@
       <c r="AF846" s="14"/>
       <c r="AG846" s="14"/>
     </row>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="15"/>
       <c r="B847" s="14"/>
       <c r="C847" s="14"/>
@@ -30742,7 +30813,7 @@
       <c r="AF847" s="14"/>
       <c r="AG847" s="14"/>
     </row>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="15"/>
       <c r="B848" s="14"/>
       <c r="C848" s="14"/>
@@ -30777,7 +30848,7 @@
       <c r="AF848" s="14"/>
       <c r="AG848" s="14"/>
     </row>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="15"/>
       <c r="B849" s="14"/>
       <c r="C849" s="14"/>
@@ -30812,7 +30883,7 @@
       <c r="AF849" s="14"/>
       <c r="AG849" s="14"/>
     </row>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="15"/>
       <c r="B850" s="14"/>
       <c r="C850" s="14"/>
@@ -30847,7 +30918,7 @@
       <c r="AF850" s="14"/>
       <c r="AG850" s="14"/>
     </row>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="15"/>
       <c r="B851" s="14"/>
       <c r="C851" s="14"/>
@@ -30882,7 +30953,7 @@
       <c r="AF851" s="14"/>
       <c r="AG851" s="14"/>
     </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="15"/>
       <c r="B852" s="14"/>
       <c r="C852" s="14"/>
@@ -30917,7 +30988,7 @@
       <c r="AF852" s="14"/>
       <c r="AG852" s="14"/>
     </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="15"/>
       <c r="B853" s="14"/>
       <c r="C853" s="14"/>
@@ -30952,7 +31023,7 @@
       <c r="AF853" s="14"/>
       <c r="AG853" s="14"/>
     </row>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="15"/>
       <c r="B854" s="14"/>
       <c r="C854" s="14"/>
@@ -30987,7 +31058,7 @@
       <c r="AF854" s="14"/>
       <c r="AG854" s="14"/>
     </row>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="15"/>
       <c r="B855" s="14"/>
       <c r="C855" s="14"/>
@@ -31022,7 +31093,7 @@
       <c r="AF855" s="14"/>
       <c r="AG855" s="14"/>
     </row>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="15"/>
       <c r="B856" s="14"/>
       <c r="C856" s="14"/>
@@ -31057,7 +31128,7 @@
       <c r="AF856" s="14"/>
       <c r="AG856" s="14"/>
     </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="15"/>
       <c r="B857" s="14"/>
       <c r="C857" s="14"/>
@@ -31092,7 +31163,7 @@
       <c r="AF857" s="14"/>
       <c r="AG857" s="14"/>
     </row>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="15"/>
       <c r="B858" s="14"/>
       <c r="C858" s="14"/>
@@ -31127,7 +31198,7 @@
       <c r="AF858" s="14"/>
       <c r="AG858" s="14"/>
     </row>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="15"/>
       <c r="B859" s="14"/>
       <c r="C859" s="14"/>
@@ -31162,7 +31233,7 @@
       <c r="AF859" s="14"/>
       <c r="AG859" s="14"/>
     </row>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="15"/>
       <c r="B860" s="14"/>
       <c r="C860" s="14"/>
@@ -31197,7 +31268,7 @@
       <c r="AF860" s="14"/>
       <c r="AG860" s="14"/>
     </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="15"/>
       <c r="B861" s="14"/>
       <c r="C861" s="14"/>
@@ -31232,7 +31303,7 @@
       <c r="AF861" s="14"/>
       <c r="AG861" s="14"/>
     </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="15"/>
       <c r="B862" s="14"/>
       <c r="C862" s="14"/>
@@ -31267,7 +31338,7 @@
       <c r="AF862" s="14"/>
       <c r="AG862" s="14"/>
     </row>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="15"/>
       <c r="B863" s="14"/>
       <c r="C863" s="14"/>
@@ -31302,7 +31373,7 @@
       <c r="AF863" s="14"/>
       <c r="AG863" s="14"/>
     </row>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="15"/>
       <c r="B864" s="14"/>
       <c r="C864" s="14"/>
@@ -31337,7 +31408,7 @@
       <c r="AF864" s="14"/>
       <c r="AG864" s="14"/>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="15"/>
       <c r="B865" s="14"/>
       <c r="C865" s="14"/>
@@ -31372,7 +31443,7 @@
       <c r="AF865" s="14"/>
       <c r="AG865" s="14"/>
     </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="15"/>
       <c r="B866" s="14"/>
       <c r="C866" s="14"/>
@@ -31407,7 +31478,7 @@
       <c r="AF866" s="14"/>
       <c r="AG866" s="14"/>
     </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="15"/>
       <c r="B867" s="14"/>
       <c r="C867" s="14"/>
@@ -31442,7 +31513,7 @@
       <c r="AF867" s="14"/>
       <c r="AG867" s="14"/>
     </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="15"/>
       <c r="B868" s="14"/>
       <c r="C868" s="14"/>
@@ -31477,7 +31548,7 @@
       <c r="AF868" s="14"/>
       <c r="AG868" s="14"/>
     </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="15"/>
       <c r="B869" s="14"/>
       <c r="C869" s="14"/>
@@ -31512,7 +31583,7 @@
       <c r="AF869" s="14"/>
       <c r="AG869" s="14"/>
     </row>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="15"/>
       <c r="B870" s="14"/>
       <c r="C870" s="14"/>
@@ -31547,7 +31618,7 @@
       <c r="AF870" s="14"/>
       <c r="AG870" s="14"/>
     </row>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="15"/>
       <c r="B871" s="14"/>
       <c r="C871" s="14"/>
@@ -31582,7 +31653,7 @@
       <c r="AF871" s="14"/>
       <c r="AG871" s="14"/>
     </row>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="15"/>
       <c r="B872" s="14"/>
       <c r="C872" s="14"/>
@@ -31617,7 +31688,7 @@
       <c r="AF872" s="14"/>
       <c r="AG872" s="14"/>
     </row>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="15"/>
       <c r="B873" s="14"/>
       <c r="C873" s="14"/>
@@ -31652,7 +31723,7 @@
       <c r="AF873" s="14"/>
       <c r="AG873" s="14"/>
     </row>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="15"/>
       <c r="B874" s="14"/>
       <c r="C874" s="14"/>
@@ -31687,7 +31758,7 @@
       <c r="AF874" s="14"/>
       <c r="AG874" s="14"/>
     </row>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="15"/>
       <c r="B875" s="14"/>
       <c r="C875" s="14"/>
@@ -31722,7 +31793,7 @@
       <c r="AF875" s="14"/>
       <c r="AG875" s="14"/>
     </row>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="15"/>
       <c r="B876" s="14"/>
       <c r="C876" s="14"/>
@@ -31757,7 +31828,7 @@
       <c r="AF876" s="14"/>
       <c r="AG876" s="14"/>
     </row>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="15"/>
       <c r="B877" s="14"/>
       <c r="C877" s="14"/>
@@ -31792,7 +31863,7 @@
       <c r="AF877" s="14"/>
       <c r="AG877" s="14"/>
     </row>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="15"/>
       <c r="B878" s="14"/>
       <c r="C878" s="14"/>
@@ -31827,7 +31898,7 @@
       <c r="AF878" s="14"/>
       <c r="AG878" s="14"/>
     </row>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="15"/>
       <c r="B879" s="14"/>
       <c r="C879" s="14"/>
@@ -31862,7 +31933,7 @@
       <c r="AF879" s="14"/>
       <c r="AG879" s="14"/>
     </row>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="15"/>
       <c r="B880" s="14"/>
       <c r="C880" s="14"/>
@@ -31897,7 +31968,7 @@
       <c r="AF880" s="14"/>
       <c r="AG880" s="14"/>
     </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="15"/>
       <c r="B881" s="14"/>
       <c r="C881" s="14"/>
@@ -31932,7 +32003,7 @@
       <c r="AF881" s="14"/>
       <c r="AG881" s="14"/>
     </row>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="15"/>
       <c r="B882" s="14"/>
       <c r="C882" s="14"/>
@@ -31967,7 +32038,7 @@
       <c r="AF882" s="14"/>
       <c r="AG882" s="14"/>
     </row>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="15"/>
       <c r="B883" s="14"/>
       <c r="C883" s="14"/>
@@ -32002,7 +32073,7 @@
       <c r="AF883" s="14"/>
       <c r="AG883" s="14"/>
     </row>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="15"/>
       <c r="B884" s="14"/>
       <c r="C884" s="14"/>
@@ -32037,7 +32108,7 @@
       <c r="AF884" s="14"/>
       <c r="AG884" s="14"/>
     </row>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="15"/>
       <c r="B885" s="14"/>
       <c r="C885" s="14"/>
@@ -32072,7 +32143,7 @@
       <c r="AF885" s="14"/>
       <c r="AG885" s="14"/>
     </row>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="15"/>
       <c r="B886" s="14"/>
       <c r="C886" s="14"/>
@@ -32107,7 +32178,7 @@
       <c r="AF886" s="14"/>
       <c r="AG886" s="14"/>
     </row>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="15"/>
       <c r="B887" s="14"/>
       <c r="C887" s="14"/>
@@ -32142,7 +32213,7 @@
       <c r="AF887" s="14"/>
       <c r="AG887" s="14"/>
     </row>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="15"/>
       <c r="B888" s="14"/>
       <c r="C888" s="14"/>
@@ -32177,7 +32248,7 @@
       <c r="AF888" s="14"/>
       <c r="AG888" s="14"/>
     </row>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="15"/>
       <c r="B889" s="14"/>
       <c r="C889" s="14"/>
@@ -32212,7 +32283,7 @@
       <c r="AF889" s="14"/>
       <c r="AG889" s="14"/>
     </row>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="15"/>
       <c r="B890" s="14"/>
       <c r="C890" s="14"/>
@@ -32247,7 +32318,7 @@
       <c r="AF890" s="14"/>
       <c r="AG890" s="14"/>
     </row>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="15"/>
       <c r="B891" s="14"/>
       <c r="C891" s="14"/>
@@ -32282,7 +32353,7 @@
       <c r="AF891" s="14"/>
       <c r="AG891" s="14"/>
     </row>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="15"/>
       <c r="B892" s="14"/>
       <c r="C892" s="14"/>
@@ -32317,7 +32388,7 @@
       <c r="AF892" s="14"/>
       <c r="AG892" s="14"/>
     </row>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="15"/>
       <c r="B893" s="14"/>
       <c r="C893" s="14"/>
@@ -32352,7 +32423,7 @@
       <c r="AF893" s="14"/>
       <c r="AG893" s="14"/>
     </row>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="15"/>
       <c r="B894" s="14"/>
       <c r="C894" s="14"/>
@@ -32387,7 +32458,7 @@
       <c r="AF894" s="14"/>
       <c r="AG894" s="14"/>
     </row>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="15"/>
       <c r="B895" s="14"/>
       <c r="C895" s="14"/>
@@ -32422,7 +32493,7 @@
       <c r="AF895" s="14"/>
       <c r="AG895" s="14"/>
     </row>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="15"/>
       <c r="B896" s="14"/>
       <c r="C896" s="14"/>
@@ -32457,7 +32528,7 @@
       <c r="AF896" s="14"/>
       <c r="AG896" s="14"/>
     </row>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="15"/>
       <c r="B897" s="14"/>
       <c r="C897" s="14"/>
@@ -32492,7 +32563,7 @@
       <c r="AF897" s="14"/>
       <c r="AG897" s="14"/>
     </row>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="15"/>
       <c r="B898" s="14"/>
       <c r="C898" s="14"/>
@@ -32527,7 +32598,7 @@
       <c r="AF898" s="14"/>
       <c r="AG898" s="14"/>
     </row>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="15"/>
       <c r="B899" s="14"/>
       <c r="C899" s="14"/>
@@ -32562,7 +32633,7 @@
       <c r="AF899" s="14"/>
       <c r="AG899" s="14"/>
     </row>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="15"/>
       <c r="B900" s="14"/>
       <c r="C900" s="14"/>
@@ -32597,7 +32668,7 @@
       <c r="AF900" s="14"/>
       <c r="AG900" s="14"/>
     </row>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="15"/>
       <c r="B901" s="14"/>
       <c r="C901" s="14"/>
@@ -32632,7 +32703,7 @@
       <c r="AF901" s="14"/>
       <c r="AG901" s="14"/>
     </row>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="15"/>
       <c r="B902" s="14"/>
       <c r="C902" s="14"/>
@@ -32667,7 +32738,7 @@
       <c r="AF902" s="14"/>
       <c r="AG902" s="14"/>
     </row>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="15"/>
       <c r="B903" s="14"/>
       <c r="C903" s="14"/>
@@ -32702,7 +32773,7 @@
       <c r="AF903" s="14"/>
       <c r="AG903" s="14"/>
     </row>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="15"/>
       <c r="B904" s="14"/>
       <c r="C904" s="14"/>
@@ -32737,7 +32808,7 @@
       <c r="AF904" s="14"/>
       <c r="AG904" s="14"/>
     </row>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="15"/>
       <c r="B905" s="14"/>
       <c r="C905" s="14"/>
@@ -32772,7 +32843,7 @@
       <c r="AF905" s="14"/>
       <c r="AG905" s="14"/>
     </row>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="15"/>
       <c r="B906" s="14"/>
       <c r="C906" s="14"/>
@@ -32807,7 +32878,7 @@
       <c r="AF906" s="14"/>
       <c r="AG906" s="14"/>
     </row>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="15"/>
       <c r="B907" s="14"/>
       <c r="C907" s="14"/>
@@ -32842,7 +32913,7 @@
       <c r="AF907" s="14"/>
       <c r="AG907" s="14"/>
     </row>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="15"/>
       <c r="B908" s="14"/>
       <c r="C908" s="14"/>
@@ -32877,7 +32948,7 @@
       <c r="AF908" s="14"/>
       <c r="AG908" s="14"/>
     </row>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="15"/>
       <c r="B909" s="14"/>
       <c r="C909" s="14"/>
@@ -32912,7 +32983,7 @@
       <c r="AF909" s="14"/>
       <c r="AG909" s="14"/>
     </row>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="15"/>
       <c r="B910" s="14"/>
       <c r="C910" s="14"/>
@@ -32947,7 +33018,7 @@
       <c r="AF910" s="14"/>
       <c r="AG910" s="14"/>
     </row>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="15"/>
       <c r="B911" s="14"/>
       <c r="C911" s="14"/>
@@ -32982,7 +33053,7 @@
       <c r="AF911" s="14"/>
       <c r="AG911" s="14"/>
     </row>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="15"/>
       <c r="B912" s="14"/>
       <c r="C912" s="14"/>
@@ -33017,7 +33088,7 @@
       <c r="AF912" s="14"/>
       <c r="AG912" s="14"/>
     </row>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="15"/>
       <c r="B913" s="14"/>
       <c r="C913" s="14"/>
@@ -33052,7 +33123,7 @@
       <c r="AF913" s="14"/>
       <c r="AG913" s="14"/>
     </row>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="15"/>
       <c r="B914" s="14"/>
       <c r="C914" s="14"/>
@@ -33087,7 +33158,7 @@
       <c r="AF914" s="14"/>
       <c r="AG914" s="14"/>
     </row>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="15"/>
       <c r="B915" s="14"/>
       <c r="C915" s="14"/>
@@ -33122,7 +33193,7 @@
       <c r="AF915" s="14"/>
       <c r="AG915" s="14"/>
     </row>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="15"/>
       <c r="B916" s="14"/>
       <c r="C916" s="14"/>
@@ -33157,7 +33228,7 @@
       <c r="AF916" s="14"/>
       <c r="AG916" s="14"/>
     </row>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="15"/>
       <c r="B917" s="14"/>
       <c r="C917" s="14"/>
@@ -33192,7 +33263,7 @@
       <c r="AF917" s="14"/>
       <c r="AG917" s="14"/>
     </row>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="15"/>
       <c r="B918" s="14"/>
       <c r="C918" s="14"/>
@@ -33227,7 +33298,7 @@
       <c r="AF918" s="14"/>
       <c r="AG918" s="14"/>
     </row>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="15"/>
       <c r="B919" s="14"/>
       <c r="C919" s="14"/>
@@ -33262,7 +33333,7 @@
       <c r="AF919" s="14"/>
       <c r="AG919" s="14"/>
     </row>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="15"/>
       <c r="B920" s="14"/>
       <c r="C920" s="14"/>
@@ -33297,7 +33368,7 @@
       <c r="AF920" s="14"/>
       <c r="AG920" s="14"/>
     </row>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="15"/>
       <c r="B921" s="14"/>
       <c r="C921" s="14"/>
@@ -33332,7 +33403,7 @@
       <c r="AF921" s="14"/>
       <c r="AG921" s="14"/>
     </row>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="15"/>
       <c r="B922" s="14"/>
       <c r="C922" s="14"/>
@@ -33367,7 +33438,7 @@
       <c r="AF922" s="14"/>
       <c r="AG922" s="14"/>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="15"/>
       <c r="B923" s="14"/>
       <c r="C923" s="14"/>
@@ -33402,7 +33473,7 @@
       <c r="AF923" s="14"/>
       <c r="AG923" s="14"/>
     </row>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="15"/>
       <c r="B924" s="14"/>
       <c r="C924" s="14"/>
@@ -33437,7 +33508,7 @@
       <c r="AF924" s="14"/>
       <c r="AG924" s="14"/>
     </row>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="15"/>
       <c r="B925" s="14"/>
       <c r="C925" s="14"/>
@@ -33472,7 +33543,7 @@
       <c r="AF925" s="14"/>
       <c r="AG925" s="14"/>
     </row>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="15"/>
       <c r="B926" s="14"/>
       <c r="C926" s="14"/>
@@ -33507,7 +33578,7 @@
       <c r="AF926" s="14"/>
       <c r="AG926" s="14"/>
     </row>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="15"/>
       <c r="B927" s="14"/>
       <c r="C927" s="14"/>
@@ -33542,7 +33613,7 @@
       <c r="AF927" s="14"/>
       <c r="AG927" s="14"/>
     </row>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="15"/>
       <c r="B928" s="14"/>
       <c r="C928" s="14"/>
@@ -33577,7 +33648,7 @@
       <c r="AF928" s="14"/>
       <c r="AG928" s="14"/>
     </row>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="15"/>
       <c r="B929" s="14"/>
       <c r="C929" s="14"/>
@@ -33612,7 +33683,7 @@
       <c r="AF929" s="14"/>
       <c r="AG929" s="14"/>
     </row>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="15"/>
       <c r="B930" s="14"/>
       <c r="C930" s="14"/>
@@ -33647,7 +33718,7 @@
       <c r="AF930" s="14"/>
       <c r="AG930" s="14"/>
     </row>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="15"/>
       <c r="B931" s="14"/>
       <c r="C931" s="14"/>
@@ -33682,7 +33753,7 @@
       <c r="AF931" s="14"/>
       <c r="AG931" s="14"/>
     </row>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="15"/>
       <c r="B932" s="14"/>
       <c r="C932" s="14"/>
@@ -33717,7 +33788,7 @@
       <c r="AF932" s="14"/>
       <c r="AG932" s="14"/>
     </row>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="15"/>
       <c r="B933" s="14"/>
       <c r="C933" s="14"/>
@@ -33752,7 +33823,7 @@
       <c r="AF933" s="14"/>
       <c r="AG933" s="14"/>
     </row>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="15"/>
       <c r="B934" s="14"/>
       <c r="C934" s="14"/>
@@ -33787,7 +33858,7 @@
       <c r="AF934" s="14"/>
       <c r="AG934" s="14"/>
     </row>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="15"/>
       <c r="B935" s="14"/>
       <c r="C935" s="14"/>
@@ -33822,7 +33893,7 @@
       <c r="AF935" s="14"/>
       <c r="AG935" s="14"/>
     </row>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="15"/>
       <c r="B936" s="14"/>
       <c r="C936" s="14"/>
@@ -33857,7 +33928,7 @@
       <c r="AF936" s="14"/>
       <c r="AG936" s="14"/>
     </row>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="15"/>
       <c r="B937" s="14"/>
       <c r="C937" s="14"/>
@@ -33892,7 +33963,7 @@
       <c r="AF937" s="14"/>
       <c r="AG937" s="14"/>
     </row>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="15"/>
       <c r="B938" s="14"/>
       <c r="C938" s="14"/>
@@ -33927,7 +33998,7 @@
       <c r="AF938" s="14"/>
       <c r="AG938" s="14"/>
     </row>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="15"/>
       <c r="B939" s="14"/>
       <c r="C939" s="14"/>
@@ -33962,7 +34033,7 @@
       <c r="AF939" s="14"/>
       <c r="AG939" s="14"/>
     </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="15"/>
       <c r="B940" s="14"/>
       <c r="C940" s="14"/>
@@ -33997,7 +34068,7 @@
       <c r="AF940" s="14"/>
       <c r="AG940" s="14"/>
     </row>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="15"/>
       <c r="B941" s="14"/>
       <c r="C941" s="14"/>
@@ -34032,7 +34103,7 @@
       <c r="AF941" s="14"/>
       <c r="AG941" s="14"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="15"/>
       <c r="B942" s="14"/>
       <c r="C942" s="14"/>
@@ -34067,7 +34138,7 @@
       <c r="AF942" s="14"/>
       <c r="AG942" s="14"/>
     </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="15"/>
       <c r="B943" s="14"/>
       <c r="C943" s="14"/>
@@ -34102,7 +34173,7 @@
       <c r="AF943" s="14"/>
       <c r="AG943" s="14"/>
     </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="15"/>
       <c r="B944" s="14"/>
       <c r="C944" s="14"/>
@@ -34137,7 +34208,7 @@
       <c r="AF944" s="14"/>
       <c r="AG944" s="14"/>
     </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="15"/>
       <c r="B945" s="14"/>
       <c r="C945" s="14"/>
@@ -34172,7 +34243,7 @@
       <c r="AF945" s="14"/>
       <c r="AG945" s="14"/>
     </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="15"/>
       <c r="B946" s="14"/>
       <c r="C946" s="14"/>
@@ -34207,7 +34278,7 @@
       <c r="AF946" s="14"/>
       <c r="AG946" s="14"/>
     </row>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="15"/>
       <c r="B947" s="14"/>
       <c r="C947" s="14"/>
@@ -34242,7 +34313,7 @@
       <c r="AF947" s="14"/>
       <c r="AG947" s="14"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="15"/>
       <c r="B948" s="14"/>
       <c r="C948" s="14"/>
@@ -34277,7 +34348,7 @@
       <c r="AF948" s="14"/>
       <c r="AG948" s="14"/>
     </row>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="15"/>
       <c r="B949" s="14"/>
       <c r="C949" s="14"/>
@@ -34312,7 +34383,7 @@
       <c r="AF949" s="14"/>
       <c r="AG949" s="14"/>
     </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="15"/>
       <c r="B950" s="14"/>
       <c r="C950" s="14"/>
@@ -34347,7 +34418,7 @@
       <c r="AF950" s="14"/>
       <c r="AG950" s="14"/>
     </row>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="15"/>
       <c r="B951" s="14"/>
       <c r="C951" s="14"/>
@@ -34382,7 +34453,7 @@
       <c r="AF951" s="14"/>
       <c r="AG951" s="14"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="15"/>
       <c r="B952" s="14"/>
       <c r="C952" s="14"/>
@@ -34417,7 +34488,7 @@
       <c r="AF952" s="14"/>
       <c r="AG952" s="14"/>
     </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="15"/>
       <c r="B953" s="14"/>
       <c r="C953" s="14"/>
@@ -34452,7 +34523,7 @@
       <c r="AF953" s="14"/>
       <c r="AG953" s="14"/>
     </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="15"/>
       <c r="B954" s="14"/>
       <c r="C954" s="14"/>
@@ -34487,7 +34558,7 @@
       <c r="AF954" s="14"/>
       <c r="AG954" s="14"/>
     </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="15"/>
       <c r="B955" s="14"/>
       <c r="C955" s="14"/>
@@ -34522,7 +34593,7 @@
       <c r="AF955" s="14"/>
       <c r="AG955" s="14"/>
     </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="15"/>
       <c r="B956" s="14"/>
       <c r="C956" s="14"/>
@@ -34557,7 +34628,7 @@
       <c r="AF956" s="14"/>
       <c r="AG956" s="14"/>
     </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="15"/>
       <c r="B957" s="14"/>
       <c r="C957" s="14"/>
@@ -34592,7 +34663,7 @@
       <c r="AF957" s="14"/>
       <c r="AG957" s="14"/>
     </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="15"/>
       <c r="B958" s="14"/>
       <c r="C958" s="14"/>
@@ -34627,7 +34698,7 @@
       <c r="AF958" s="14"/>
       <c r="AG958" s="14"/>
     </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="15"/>
       <c r="B959" s="14"/>
       <c r="C959" s="14"/>
@@ -34662,7 +34733,7 @@
       <c r="AF959" s="14"/>
       <c r="AG959" s="14"/>
     </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="15"/>
       <c r="B960" s="14"/>
       <c r="C960" s="14"/>
@@ -34697,7 +34768,7 @@
       <c r="AF960" s="14"/>
       <c r="AG960" s="14"/>
     </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="15"/>
       <c r="B961" s="14"/>
       <c r="C961" s="14"/>
@@ -34732,7 +34803,7 @@
       <c r="AF961" s="14"/>
       <c r="AG961" s="14"/>
     </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="15"/>
       <c r="B962" s="14"/>
       <c r="C962" s="14"/>
@@ -34767,7 +34838,7 @@
       <c r="AF962" s="14"/>
       <c r="AG962" s="14"/>
     </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="15"/>
       <c r="B963" s="14"/>
       <c r="C963" s="14"/>
@@ -34802,7 +34873,7 @@
       <c r="AF963" s="14"/>
       <c r="AG963" s="14"/>
     </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="15"/>
       <c r="B964" s="14"/>
       <c r="C964" s="14"/>
@@ -34837,7 +34908,7 @@
       <c r="AF964" s="14"/>
       <c r="AG964" s="14"/>
     </row>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="15"/>
       <c r="B965" s="14"/>
       <c r="C965" s="14"/>
@@ -34872,7 +34943,7 @@
       <c r="AF965" s="14"/>
       <c r="AG965" s="14"/>
     </row>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="15"/>
       <c r="B966" s="14"/>
       <c r="C966" s="14"/>
@@ -34907,7 +34978,7 @@
       <c r="AF966" s="14"/>
       <c r="AG966" s="14"/>
     </row>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="15"/>
       <c r="B967" s="14"/>
       <c r="C967" s="14"/>
@@ -34942,7 +35013,7 @@
       <c r="AF967" s="14"/>
       <c r="AG967" s="14"/>
     </row>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="15"/>
       <c r="B968" s="14"/>
       <c r="C968" s="14"/>
@@ -34977,7 +35048,7 @@
       <c r="AF968" s="14"/>
       <c r="AG968" s="14"/>
     </row>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="15"/>
       <c r="B969" s="14"/>
       <c r="C969" s="14"/>
@@ -35012,7 +35083,7 @@
       <c r="AF969" s="14"/>
       <c r="AG969" s="14"/>
     </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="15"/>
       <c r="B970" s="14"/>
       <c r="C970" s="14"/>
@@ -35047,7 +35118,7 @@
       <c r="AF970" s="14"/>
       <c r="AG970" s="14"/>
     </row>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="15"/>
       <c r="B971" s="14"/>
       <c r="C971" s="14"/>
@@ -35082,7 +35153,7 @@
       <c r="AF971" s="14"/>
       <c r="AG971" s="14"/>
     </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="15"/>
       <c r="B972" s="14"/>
       <c r="C972" s="14"/>
@@ -35117,7 +35188,7 @@
       <c r="AF972" s="14"/>
       <c r="AG972" s="14"/>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="15"/>
       <c r="B973" s="14"/>
       <c r="C973" s="14"/>
@@ -35152,7 +35223,7 @@
       <c r="AF973" s="14"/>
       <c r="AG973" s="14"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="15"/>
       <c r="B974" s="14"/>
       <c r="C974" s="14"/>
@@ -35187,7 +35258,7 @@
       <c r="AF974" s="14"/>
       <c r="AG974" s="14"/>
     </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="15"/>
       <c r="B975" s="14"/>
       <c r="C975" s="14"/>
@@ -35222,7 +35293,7 @@
       <c r="AF975" s="14"/>
       <c r="AG975" s="14"/>
     </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="15"/>
       <c r="B976" s="14"/>
       <c r="C976" s="14"/>
@@ -35257,7 +35328,7 @@
       <c r="AF976" s="14"/>
       <c r="AG976" s="14"/>
     </row>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="15"/>
       <c r="B977" s="14"/>
       <c r="C977" s="14"/>
@@ -35292,7 +35363,7 @@
       <c r="AF977" s="14"/>
       <c r="AG977" s="14"/>
     </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="15"/>
       <c r="B978" s="14"/>
       <c r="C978" s="14"/>
@@ -35327,7 +35398,7 @@
       <c r="AF978" s="14"/>
       <c r="AG978" s="14"/>
     </row>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="15"/>
       <c r="B979" s="14"/>
       <c r="C979" s="14"/>
@@ -35362,7 +35433,7 @@
       <c r="AF979" s="14"/>
       <c r="AG979" s="14"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="15"/>
       <c r="B980" s="14"/>
       <c r="C980" s="14"/>
@@ -35397,7 +35468,7 @@
       <c r="AF980" s="14"/>
       <c r="AG980" s="14"/>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="15"/>
       <c r="B981" s="14"/>
       <c r="C981" s="14"/>
@@ -35432,7 +35503,7 @@
       <c r="AF981" s="14"/>
       <c r="AG981" s="14"/>
     </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="15"/>
       <c r="B982" s="14"/>
       <c r="C982" s="14"/>
@@ -35467,7 +35538,7 @@
       <c r="AF982" s="14"/>
       <c r="AG982" s="14"/>
     </row>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="15"/>
       <c r="B983" s="14"/>
       <c r="C983" s="14"/>
@@ -35502,7 +35573,7 @@
       <c r="AF983" s="14"/>
       <c r="AG983" s="14"/>
     </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="15"/>
       <c r="B984" s="14"/>
       <c r="C984" s="14"/>
@@ -35537,7 +35608,7 @@
       <c r="AF984" s="14"/>
       <c r="AG984" s="14"/>
     </row>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="15"/>
       <c r="B985" s="14"/>
       <c r="C985" s="14"/>
@@ -35572,7 +35643,7 @@
       <c r="AF985" s="14"/>
       <c r="AG985" s="14"/>
     </row>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="15"/>
       <c r="B986" s="14"/>
       <c r="C986" s="14"/>
@@ -35607,7 +35678,7 @@
       <c r="AF986" s="14"/>
       <c r="AG986" s="14"/>
     </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="15"/>
       <c r="B987" s="14"/>
       <c r="C987" s="14"/>
@@ -35642,7 +35713,7 @@
       <c r="AF987" s="14"/>
       <c r="AG987" s="14"/>
     </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="15"/>
       <c r="B988" s="14"/>
       <c r="C988" s="14"/>
@@ -35677,7 +35748,7 @@
       <c r="AF988" s="14"/>
       <c r="AG988" s="14"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="15"/>
       <c r="B989" s="14"/>
       <c r="C989" s="14"/>
@@ -35712,7 +35783,7 @@
       <c r="AF989" s="14"/>
       <c r="AG989" s="14"/>
     </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="15"/>
       <c r="B990" s="14"/>
       <c r="C990" s="14"/>
@@ -35747,7 +35818,7 @@
       <c r="AF990" s="14"/>
       <c r="AG990" s="14"/>
     </row>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="15"/>
       <c r="B991" s="14"/>
       <c r="C991" s="14"/>
@@ -35782,7 +35853,7 @@
       <c r="AF991" s="14"/>
       <c r="AG991" s="14"/>
     </row>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="15"/>
       <c r="B992" s="14"/>
       <c r="C992" s="14"/>
@@ -35817,7 +35888,7 @@
       <c r="AF992" s="14"/>
       <c r="AG992" s="14"/>
     </row>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="15"/>
       <c r="B993" s="14"/>
       <c r="C993" s="14"/>
@@ -35852,7 +35923,7 @@
       <c r="AF993" s="14"/>
       <c r="AG993" s="14"/>
     </row>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="15"/>
       <c r="B994" s="14"/>
       <c r="C994" s="14"/>
@@ -35887,7 +35958,7 @@
       <c r="AF994" s="14"/>
       <c r="AG994" s="14"/>
     </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="15"/>
       <c r="B995" s="14"/>
       <c r="C995" s="14"/>
@@ -35922,7 +35993,7 @@
       <c r="AF995" s="14"/>
       <c r="AG995" s="14"/>
     </row>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="15"/>
       <c r="B996" s="14"/>
       <c r="C996" s="14"/>
@@ -35957,7 +36028,7 @@
       <c r="AF996" s="14"/>
       <c r="AG996" s="14"/>
     </row>
-    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="15"/>
       <c r="B997" s="14"/>
       <c r="C997" s="14"/>
@@ -35992,7 +36063,7 @@
       <c r="AF997" s="14"/>
       <c r="AG997" s="14"/>
     </row>
-    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="15"/>
       <c r="B998" s="14"/>
       <c r="C998" s="14"/>
@@ -36027,7 +36098,7 @@
       <c r="AF998" s="14"/>
       <c r="AG998" s="14"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="15"/>
       <c r="B999" s="14"/>
       <c r="C999" s="14"/>
@@ -36062,7 +36133,7 @@
       <c r="AF999" s="14"/>
       <c r="AG999" s="14"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="15"/>
       <c r="B1000" s="14"/>
       <c r="C1000" s="14"/>
@@ -36097,7 +36168,7 @@
       <c r="AF1000" s="14"/>
       <c r="AG1000" s="14"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="15"/>
       <c r="B1001" s="14"/>
       <c r="C1001" s="14"/>
@@ -36132,7 +36203,7 @@
       <c r="AF1001" s="14"/>
       <c r="AG1001" s="14"/>
     </row>
-    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="15"/>
       <c r="B1002" s="14"/>
       <c r="C1002" s="14"/>
@@ -36167,7 +36238,7 @@
       <c r="AF1002" s="14"/>
       <c r="AG1002" s="14"/>
     </row>
-    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="15"/>
       <c r="B1003" s="14"/>
       <c r="C1003" s="14"/>
@@ -36202,7 +36273,7 @@
       <c r="AF1003" s="14"/>
       <c r="AG1003" s="14"/>
     </row>
-    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="15"/>
       <c r="B1004" s="14"/>
       <c r="C1004" s="14"/>
@@ -36237,7 +36308,7 @@
       <c r="AF1004" s="14"/>
       <c r="AG1004" s="14"/>
     </row>
-    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="15"/>
       <c r="B1005" s="14"/>
       <c r="C1005" s="14"/>
@@ -36272,7 +36343,7 @@
       <c r="AF1005" s="14"/>
       <c r="AG1005" s="14"/>
     </row>
-    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="15"/>
       <c r="B1006" s="14"/>
       <c r="C1006" s="14"/>
@@ -36307,7 +36378,7 @@
       <c r="AF1006" s="14"/>
       <c r="AG1006" s="14"/>
     </row>
-    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="15"/>
       <c r="B1007" s="14"/>
       <c r="C1007" s="14"/>
@@ -36342,7 +36413,7 @@
       <c r="AF1007" s="14"/>
       <c r="AG1007" s="14"/>
     </row>
-    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="15"/>
       <c r="B1008" s="14"/>
       <c r="C1008" s="14"/>
@@ -36377,7 +36448,7 @@
       <c r="AF1008" s="14"/>
       <c r="AG1008" s="14"/>
     </row>
-    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="15"/>
       <c r="B1009" s="14"/>
       <c r="C1009" s="14"/>
@@ -36412,7 +36483,7 @@
       <c r="AF1009" s="14"/>
       <c r="AG1009" s="14"/>
     </row>
-    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="15"/>
       <c r="B1010" s="14"/>
       <c r="C1010" s="14"/>
@@ -36447,7 +36518,7 @@
       <c r="AF1010" s="14"/>
       <c r="AG1010" s="14"/>
     </row>
-    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="15"/>
       <c r="B1011" s="14"/>
       <c r="C1011" s="14"/>
@@ -36482,7 +36553,7 @@
       <c r="AF1011" s="14"/>
       <c r="AG1011" s="14"/>
     </row>
-    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="15"/>
       <c r="B1012" s="14"/>
       <c r="C1012" s="14"/>
@@ -36517,7 +36588,7 @@
       <c r="AF1012" s="14"/>
       <c r="AG1012" s="14"/>
     </row>
-    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="15"/>
       <c r="B1013" s="14"/>
       <c r="C1013" s="14"/>
@@ -36552,7 +36623,7 @@
       <c r="AF1013" s="14"/>
       <c r="AG1013" s="14"/>
     </row>
-    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="15"/>
       <c r="B1014" s="14"/>
       <c r="C1014" s="14"/>
@@ -36587,7 +36658,7 @@
       <c r="AF1014" s="14"/>
       <c r="AG1014" s="14"/>
     </row>
-    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="15"/>
       <c r="B1015" s="14"/>
       <c r="C1015" s="14"/>
@@ -36622,7 +36693,7 @@
       <c r="AF1015" s="14"/>
       <c r="AG1015" s="14"/>
     </row>
-    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="15"/>
       <c r="B1016" s="14"/>
       <c r="C1016" s="14"/>
@@ -36657,7 +36728,7 @@
       <c r="AF1016" s="14"/>
       <c r="AG1016" s="14"/>
     </row>
-    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="15"/>
       <c r="B1017" s="14"/>
       <c r="C1017" s="14"/>
@@ -36692,7 +36763,7 @@
       <c r="AF1017" s="14"/>
       <c r="AG1017" s="14"/>
     </row>
-    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="15"/>
       <c r="B1018" s="14"/>
       <c r="C1018" s="14"/>
@@ -36727,7 +36798,7 @@
       <c r="AF1018" s="14"/>
       <c r="AG1018" s="14"/>
     </row>
-    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="15"/>
       <c r="B1019" s="14"/>
       <c r="C1019" s="14"/>
@@ -36762,7 +36833,7 @@
       <c r="AF1019" s="14"/>
       <c r="AG1019" s="14"/>
     </row>
-    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="15"/>
       <c r="B1020" s="14"/>
       <c r="C1020" s="14"/>
@@ -36797,7 +36868,7 @@
       <c r="AF1020" s="14"/>
       <c r="AG1020" s="14"/>
     </row>
-    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="15"/>
       <c r="B1021" s="14"/>
       <c r="C1021" s="14"/>
@@ -36832,7 +36903,7 @@
       <c r="AF1021" s="14"/>
       <c r="AG1021" s="14"/>
     </row>
-    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="15"/>
       <c r="B1022" s="14"/>
       <c r="C1022" s="14"/>
@@ -36867,7 +36938,7 @@
       <c r="AF1022" s="14"/>
       <c r="AG1022" s="14"/>
     </row>
-    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="15"/>
       <c r="B1023" s="14"/>
       <c r="C1023" s="14"/>
@@ -36902,7 +36973,7 @@
       <c r="AF1023" s="14"/>
       <c r="AG1023" s="14"/>
     </row>
-    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="15"/>
       <c r="B1024" s="14"/>
       <c r="C1024" s="14"/>
@@ -36937,7 +37008,7 @@
       <c r="AF1024" s="14"/>
       <c r="AG1024" s="14"/>
     </row>
-    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="15"/>
       <c r="B1025" s="14"/>
       <c r="C1025" s="14"/>
@@ -36972,7 +37043,7 @@
       <c r="AF1025" s="14"/>
       <c r="AG1025" s="14"/>
     </row>
-    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="15"/>
       <c r="B1026" s="14"/>
       <c r="C1026" s="14"/>
@@ -37007,7 +37078,7 @@
       <c r="AF1026" s="14"/>
       <c r="AG1026" s="14"/>
     </row>
-    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="15"/>
       <c r="B1027" s="14"/>
       <c r="C1027" s="14"/>
@@ -37042,7 +37113,7 @@
       <c r="AF1027" s="14"/>
       <c r="AG1027" s="14"/>
     </row>
-    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="15"/>
       <c r="B1028" s="14"/>
       <c r="C1028" s="14"/>
@@ -37077,7 +37148,7 @@
       <c r="AF1028" s="14"/>
       <c r="AG1028" s="14"/>
     </row>
-    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="15"/>
       <c r="B1029" s="14"/>
       <c r="C1029" s="14"/>
@@ -37112,7 +37183,7 @@
       <c r="AF1029" s="14"/>
       <c r="AG1029" s="14"/>
     </row>
-    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="15"/>
       <c r="B1030" s="14"/>
       <c r="C1030" s="14"/>
@@ -37147,7 +37218,7 @@
       <c r="AF1030" s="14"/>
       <c r="AG1030" s="14"/>
     </row>
-    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="15"/>
       <c r="B1031" s="14"/>
       <c r="C1031" s="14"/>
@@ -37182,7 +37253,7 @@
       <c r="AF1031" s="14"/>
       <c r="AG1031" s="14"/>
     </row>
-    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="15"/>
       <c r="B1032" s="14"/>
       <c r="C1032" s="14"/>
@@ -37217,7 +37288,7 @@
       <c r="AF1032" s="14"/>
       <c r="AG1032" s="14"/>
     </row>
-    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="15"/>
       <c r="B1033" s="14"/>
       <c r="C1033" s="14"/>
@@ -37253,12 +37324,11 @@
       <c r="AG1033" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="99">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="C8:C14"/>
-    <mergeCell ref="H8:H14"/>
     <mergeCell ref="I8:I14"/>
     <mergeCell ref="K8:K14"/>
     <mergeCell ref="L8:L14"/>
@@ -37382,7 +37452,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H49" r:id="rId1" display="https://beckn-one.succinct.in/rating"/>
+    <hyperlink ref="H8" r:id="rId1" display="https://mandi.succinct.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
